--- a/train_results/on-trade_all_train_result.xlsx
+++ b/train_results/on-trade_all_train_result.xlsx
@@ -610,7 +610,7 @@
         <v>145</v>
       </c>
       <c r="V2" t="n">
-        <v>328</v>
+        <v>533</v>
       </c>
     </row>
     <row r="3">
@@ -674,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>57</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
@@ -744,7 +744,7 @@
         <v>736</v>
       </c>
       <c r="V4" t="n">
-        <v>586</v>
+        <v>541</v>
       </c>
     </row>
     <row r="5">
@@ -814,7 +814,7 @@
         <v>69.125</v>
       </c>
       <c r="V5" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
@@ -884,7 +884,7 @@
         <v>1363</v>
       </c>
       <c r="V6" t="n">
-        <v>899</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="7">
@@ -954,7 +954,7 @@
         <v>247.75</v>
       </c>
       <c r="V7" t="n">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8">
@@ -1024,7 +1024,7 @@
         <v>1745</v>
       </c>
       <c r="V8" t="n">
-        <v>2082</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="9">
@@ -1094,7 +1094,7 @@
         <v>361.25</v>
       </c>
       <c r="V9" t="n">
-        <v>419</v>
+        <v>399</v>
       </c>
     </row>
     <row r="10">
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11">
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
@@ -1292,7 +1292,7 @@
         <v>113.125</v>
       </c>
       <c r="V12" t="n">
-        <v>139</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13">
@@ -1362,7 +1362,7 @@
         <v>210.25</v>
       </c>
       <c r="V13" t="n">
-        <v>184</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14">
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>41</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15">
@@ -1496,7 +1496,7 @@
         <v>83.75</v>
       </c>
       <c r="V15" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16">
@@ -1564,7 +1564,7 @@
         <v>12.078125</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -1634,7 +1634,7 @@
         <v>154</v>
       </c>
       <c r="V17" t="n">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18">
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>87</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19">
@@ -1762,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1832,7 +1832,7 @@
         <v>364</v>
       </c>
       <c r="V20" t="n">
-        <v>209</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21">
@@ -1902,7 +1902,7 @@
         <v>65</v>
       </c>
       <c r="V21" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
@@ -1972,7 +1972,7 @@
         <v>879.5</v>
       </c>
       <c r="V22" t="n">
-        <v>998</v>
+        <v>812</v>
       </c>
     </row>
     <row r="23">
@@ -2042,7 +2042,7 @@
         <v>136.5</v>
       </c>
       <c r="V23" t="n">
-        <v>154</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24">
@@ -2112,7 +2112,7 @@
         <v>103.3125</v>
       </c>
       <c r="V24" t="n">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25">
@@ -2182,7 +2182,7 @@
         <v>20.890625</v>
       </c>
       <c r="V25" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -2252,7 +2252,7 @@
         <v>64.6875</v>
       </c>
       <c r="V26" t="n">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27">
@@ -2316,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28">
@@ -2386,7 +2386,7 @@
         <v>46.96875</v>
       </c>
       <c r="V28" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29">
@@ -2456,7 +2456,7 @@
         <v>277.25</v>
       </c>
       <c r="V29" t="n">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30">
@@ -2526,7 +2526,7 @@
         <v>53.25</v>
       </c>
       <c r="V30" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31">
@@ -2596,7 +2596,7 @@
         <v>41.75</v>
       </c>
       <c r="V31" t="n">
-        <v>104</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32">
@@ -2790,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35">
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36">
@@ -2922,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -2992,7 +2992,7 @@
         <v>461</v>
       </c>
       <c r="V37" t="n">
-        <v>208</v>
+        <v>185</v>
       </c>
     </row>
     <row r="38">
@@ -3062,7 +3062,7 @@
         <v>569.5</v>
       </c>
       <c r="V38" t="n">
-        <v>395</v>
+        <v>322</v>
       </c>
     </row>
     <row r="39">
@@ -3132,7 +3132,7 @@
         <v>28.90625</v>
       </c>
       <c r="V39" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40">
@@ -3202,7 +3202,7 @@
         <v>964</v>
       </c>
       <c r="V40" t="n">
-        <v>777</v>
+        <v>986</v>
       </c>
     </row>
     <row r="41">
@@ -3272,7 +3272,7 @@
         <v>90</v>
       </c>
       <c r="V41" t="n">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42">
@@ -3340,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>86</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43">
@@ -3404,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -3474,7 +3474,7 @@
         <v>482.5</v>
       </c>
       <c r="V44" t="n">
-        <v>350</v>
+        <v>415</v>
       </c>
     </row>
     <row r="45">
@@ -3544,7 +3544,7 @@
         <v>50.25</v>
       </c>
       <c r="V45" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46">
@@ -3614,7 +3614,7 @@
         <v>580.5</v>
       </c>
       <c r="V46" t="n">
-        <v>662</v>
+        <v>922</v>
       </c>
     </row>
     <row r="47">
@@ -3684,7 +3684,7 @@
         <v>192.5</v>
       </c>
       <c r="V47" t="n">
-        <v>240</v>
+        <v>216</v>
       </c>
     </row>
     <row r="48">
@@ -3754,7 +3754,7 @@
         <v>5.4765625</v>
       </c>
       <c r="V48" t="n">
-        <v>44</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49">
@@ -3894,7 +3894,7 @@
         <v>18.078125</v>
       </c>
       <c r="V50" t="n">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51">
@@ -3964,7 +3964,7 @@
         <v>7.6015625</v>
       </c>
       <c r="V51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -4030,7 +4030,7 @@
         <v>39.09375</v>
       </c>
       <c r="V52" t="n">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53">
@@ -4100,7 +4100,7 @@
         <v>7.8515625</v>
       </c>
       <c r="V53" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
@@ -4170,7 +4170,7 @@
         <v>13.5859375</v>
       </c>
       <c r="V54" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55">
@@ -4368,7 +4368,7 @@
         <v>128.625</v>
       </c>
       <c r="V57" t="n">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58">
@@ -4508,7 +4508,7 @@
         <v>190.125</v>
       </c>
       <c r="V59" t="n">
-        <v>252</v>
+        <v>213</v>
       </c>
     </row>
     <row r="60">
@@ -4578,7 +4578,7 @@
         <v>29</v>
       </c>
       <c r="V60" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61">
@@ -4648,7 +4648,7 @@
         <v>2.853515625</v>
       </c>
       <c r="V61" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62">
@@ -4718,7 +4718,7 @@
         <v>11.859375</v>
       </c>
       <c r="V62" t="n">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63">
@@ -4782,7 +4782,7 @@
         <v>0</v>
       </c>
       <c r="V63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="V64" t="n">
-        <v>44</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65">
@@ -4980,7 +4980,7 @@
         <v>509.5</v>
       </c>
       <c r="V66" t="n">
-        <v>406</v>
+        <v>347</v>
       </c>
     </row>
     <row r="67">
@@ -5050,7 +5050,7 @@
         <v>10.5390625</v>
       </c>
       <c r="V67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -5120,7 +5120,7 @@
         <v>892</v>
       </c>
       <c r="V68" t="n">
-        <v>1150</v>
+        <v>959</v>
       </c>
     </row>
     <row r="69">
@@ -5190,7 +5190,7 @@
         <v>19</v>
       </c>
       <c r="V69" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70">
@@ -5258,7 +5258,7 @@
         <v>50.46875</v>
       </c>
       <c r="V70" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71">
@@ -5326,7 +5326,7 @@
         <v>7</v>
       </c>
       <c r="V71" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72">
@@ -5394,7 +5394,7 @@
         <v>16</v>
       </c>
       <c r="V72" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73">
@@ -5524,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="V74" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75">
@@ -5584,7 +5584,7 @@
         <v>0</v>
       </c>
       <c r="V75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -5654,7 +5654,7 @@
         <v>2.359375</v>
       </c>
       <c r="V76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -5724,7 +5724,7 @@
         <v>1.81640625</v>
       </c>
       <c r="V77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -5856,7 +5856,7 @@
         <v>0</v>
       </c>
       <c r="V79" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -5926,7 +5926,7 @@
         <v>11.2109375</v>
       </c>
       <c r="V80" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81">
@@ -6066,7 +6066,7 @@
         <v>14</v>
       </c>
       <c r="V82" t="n">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="83">
@@ -6134,7 +6134,7 @@
         <v>9.6015625</v>
       </c>
       <c r="V83" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84">
@@ -6194,7 +6194,7 @@
         <v>0</v>
       </c>
       <c r="V84" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
@@ -6334,7 +6334,7 @@
         <v>2.486328125</v>
       </c>
       <c r="V86" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87">
@@ -6404,7 +6404,7 @@
         <v>6.9375</v>
       </c>
       <c r="V87" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88">
@@ -6474,7 +6474,7 @@
         <v>9.8515625</v>
       </c>
       <c r="V88" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
     </row>
     <row r="89">
@@ -6540,7 +6540,7 @@
         <v>18</v>
       </c>
       <c r="V89" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90">
@@ -6608,7 +6608,7 @@
         <v>220</v>
       </c>
       <c r="V90" t="n">
-        <v>685</v>
+        <v>654</v>
       </c>
     </row>
     <row r="91">
@@ -6674,7 +6674,7 @@
         <v>0</v>
       </c>
       <c r="V91" t="n">
-        <v>73</v>
+        <v>116</v>
       </c>
     </row>
     <row r="92">
@@ -6744,7 +6744,7 @@
         <v>988.5</v>
       </c>
       <c r="V92" t="n">
-        <v>703</v>
+        <v>509</v>
       </c>
     </row>
     <row r="93">
@@ -6814,7 +6814,7 @@
         <v>82.75</v>
       </c>
       <c r="V93" t="n">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="94">
@@ -6884,7 +6884,7 @@
         <v>2550</v>
       </c>
       <c r="V94" t="n">
-        <v>1430</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="95">
@@ -6954,7 +6954,7 @@
         <v>278</v>
       </c>
       <c r="V95" t="n">
-        <v>285</v>
+        <v>222</v>
       </c>
     </row>
     <row r="96">
@@ -7024,7 +7024,7 @@
         <v>3060</v>
       </c>
       <c r="V96" t="n">
-        <v>2677</v>
+        <v>3113</v>
       </c>
     </row>
     <row r="97">
@@ -7094,7 +7094,7 @@
         <v>386.25</v>
       </c>
       <c r="V97" t="n">
-        <v>459</v>
+        <v>376</v>
       </c>
     </row>
     <row r="98">
@@ -7158,7 +7158,7 @@
         <v>0</v>
       </c>
       <c r="V98" t="n">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="99">
@@ -7222,7 +7222,7 @@
         <v>0</v>
       </c>
       <c r="V99" t="n">
-        <v>48</v>
+        <v>75</v>
       </c>
     </row>
     <row r="100">
@@ -7292,7 +7292,7 @@
         <v>174.125</v>
       </c>
       <c r="V100" t="n">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="101">
@@ -7362,7 +7362,7 @@
         <v>336.25</v>
       </c>
       <c r="V101" t="n">
-        <v>371</v>
+        <v>195</v>
       </c>
     </row>
     <row r="102">
@@ -7426,7 +7426,7 @@
         <v>0</v>
       </c>
       <c r="V102" t="n">
-        <v>47</v>
+        <v>79</v>
       </c>
     </row>
     <row r="103">
@@ -7496,7 +7496,7 @@
         <v>127.375</v>
       </c>
       <c r="V103" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="104">
@@ -7566,7 +7566,7 @@
         <v>11.640625</v>
       </c>
       <c r="V104" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105">
@@ -7636,7 +7636,7 @@
         <v>249.375</v>
       </c>
       <c r="V105" t="n">
-        <v>291</v>
+        <v>252</v>
       </c>
     </row>
     <row r="106">
@@ -7700,7 +7700,7 @@
         <v>0</v>
       </c>
       <c r="V106" t="n">
-        <v>150</v>
+        <v>56</v>
       </c>
     </row>
     <row r="107">
@@ -7764,7 +7764,7 @@
         <v>0</v>
       </c>
       <c r="V107" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108">
@@ -7834,7 +7834,7 @@
         <v>616.5</v>
       </c>
       <c r="V108" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="109">
@@ -7904,7 +7904,7 @@
         <v>62.6875</v>
       </c>
       <c r="V109" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="110">
@@ -7974,7 +7974,7 @@
         <v>1479</v>
       </c>
       <c r="V110" t="n">
-        <v>1168</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="111">
@@ -8044,7 +8044,7 @@
         <v>140.75</v>
       </c>
       <c r="V111" t="n">
-        <v>246</v>
+        <v>160</v>
       </c>
     </row>
     <row r="112">
@@ -8114,7 +8114,7 @@
         <v>167.25</v>
       </c>
       <c r="V112" t="n">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="113">
@@ -8184,7 +8184,7 @@
         <v>20</v>
       </c>
       <c r="V113" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="114">
@@ -8254,7 +8254,7 @@
         <v>123</v>
       </c>
       <c r="V114" t="n">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="115">
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="V115" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="116">
@@ -8388,7 +8388,7 @@
         <v>45.28125</v>
       </c>
       <c r="V116" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="117">
@@ -8458,7 +8458,7 @@
         <v>261.25</v>
       </c>
       <c r="V117" t="n">
-        <v>271</v>
+        <v>169</v>
       </c>
     </row>
     <row r="118">
@@ -8528,7 +8528,7 @@
         <v>51.3125</v>
       </c>
       <c r="V118" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="119">
@@ -8598,7 +8598,7 @@
         <v>39.75</v>
       </c>
       <c r="V119" t="n">
-        <v>174</v>
+        <v>129</v>
       </c>
     </row>
     <row r="120">
@@ -8668,7 +8668,7 @@
         <v>7.7265625</v>
       </c>
       <c r="V120" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="121">
@@ -8794,7 +8794,7 @@
         <v>0</v>
       </c>
       <c r="V122" t="n">
-        <v>11</v>
+        <v>46</v>
       </c>
     </row>
     <row r="123">
@@ -8862,7 +8862,7 @@
         <v>0</v>
       </c>
       <c r="V123" t="n">
-        <v>145</v>
+        <v>159</v>
       </c>
     </row>
     <row r="124">
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="V124" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -8996,7 +8996,7 @@
         <v>652</v>
       </c>
       <c r="V125" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
     </row>
     <row r="126">
@@ -9066,7 +9066,7 @@
         <v>847</v>
       </c>
       <c r="V126" t="n">
-        <v>464</v>
+        <v>443</v>
       </c>
     </row>
     <row r="127">
@@ -9136,7 +9136,7 @@
         <v>27.859375</v>
       </c>
       <c r="V127" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="128">
@@ -9206,7 +9206,7 @@
         <v>1854</v>
       </c>
       <c r="V128" t="n">
-        <v>1105</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="129">
@@ -9276,7 +9276,7 @@
         <v>86.6875</v>
       </c>
       <c r="V129" t="n">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="130">
@@ -9344,7 +9344,7 @@
         <v>0</v>
       </c>
       <c r="V130" t="n">
-        <v>92</v>
+        <v>67</v>
       </c>
     </row>
     <row r="131">
@@ -9408,7 +9408,7 @@
         <v>0</v>
       </c>
       <c r="V131" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -9478,7 +9478,7 @@
         <v>800.5</v>
       </c>
       <c r="V132" t="n">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="133">
@@ -9548,7 +9548,7 @@
         <v>48.46875</v>
       </c>
       <c r="V133" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="134">
@@ -9618,7 +9618,7 @@
         <v>1166</v>
       </c>
       <c r="V134" t="n">
-        <v>928</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="135">
@@ -9688,7 +9688,7 @@
         <v>187</v>
       </c>
       <c r="V135" t="n">
-        <v>284</v>
+        <v>232</v>
       </c>
     </row>
     <row r="136">
@@ -9758,7 +9758,7 @@
         <v>4.984375</v>
       </c>
       <c r="V136" t="n">
-        <v>54</v>
+        <v>31</v>
       </c>
     </row>
     <row r="137">
@@ -9828,7 +9828,7 @@
         <v>4.6796875</v>
       </c>
       <c r="V137" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138">
@@ -9898,7 +9898,7 @@
         <v>18</v>
       </c>
       <c r="V138" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="139">
@@ -9968,7 +9968,7 @@
         <v>7.3984375</v>
       </c>
       <c r="V139" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="140">
@@ -10034,7 +10034,7 @@
         <v>65.0625</v>
       </c>
       <c r="V140" t="n">
-        <v>111</v>
+        <v>90</v>
       </c>
     </row>
     <row r="141">
@@ -10094,7 +10094,7 @@
         <v>60</v>
       </c>
       <c r="V141" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="142">
@@ -10164,7 +10164,7 @@
         <v>13.3671875</v>
       </c>
       <c r="V142" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="143">
@@ -10234,7 +10234,7 @@
         <v>13.0625</v>
       </c>
       <c r="V143" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="144">
@@ -10432,7 +10432,7 @@
         <v>189.25</v>
       </c>
       <c r="V146" t="n">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="147">
@@ -10572,7 +10572,7 @@
         <v>338.5</v>
       </c>
       <c r="V148" t="n">
-        <v>290</v>
+        <v>299</v>
       </c>
     </row>
     <row r="149">
@@ -10642,7 +10642,7 @@
         <v>32.90625</v>
       </c>
       <c r="V149" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="150">
@@ -10712,7 +10712,7 @@
         <v>1.9951171875</v>
       </c>
       <c r="V150" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="151">
@@ -10782,7 +10782,7 @@
         <v>14.0546875</v>
       </c>
       <c r="V151" t="n">
-        <v>94</v>
+        <v>52</v>
       </c>
     </row>
     <row r="152">
@@ -10910,7 +10910,7 @@
         <v>0</v>
       </c>
       <c r="V153" t="n">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="154">
@@ -11044,7 +11044,7 @@
         <v>812.5</v>
       </c>
       <c r="V155" t="n">
-        <v>433</v>
+        <v>321</v>
       </c>
     </row>
     <row r="156">
@@ -11114,7 +11114,7 @@
         <v>9.984375</v>
       </c>
       <c r="V156" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="157">
@@ -11184,7 +11184,7 @@
         <v>1586</v>
       </c>
       <c r="V157" t="n">
-        <v>1225</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="158">
@@ -11252,7 +11252,7 @@
         <v>18</v>
       </c>
       <c r="V158" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="159">
@@ -11322,7 +11322,7 @@
         <v>47.9375</v>
       </c>
       <c r="V159" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="160">
@@ -11390,7 +11390,7 @@
         <v>6.80078125</v>
       </c>
       <c r="V160" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="161">
@@ -11458,7 +11458,7 @@
         <v>15.203125</v>
       </c>
       <c r="V161" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="162">
@@ -11528,7 +11528,7 @@
         <v>5.80078125</v>
       </c>
       <c r="V162" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="163">
@@ -11722,7 +11722,7 @@
         <v>4.02734375</v>
       </c>
       <c r="V165" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="166">
@@ -11792,7 +11792,7 @@
         <v>3.107421875</v>
       </c>
       <c r="V166" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="167">
@@ -11862,7 +11862,7 @@
         <v>1.8994140625</v>
       </c>
       <c r="V167" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="168">
@@ -11924,7 +11924,7 @@
         <v>0</v>
       </c>
       <c r="V168" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -11994,7 +11994,7 @@
         <v>12.5546875</v>
       </c>
       <c r="V169" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="170">
@@ -12064,7 +12064,7 @@
         <v>8.5</v>
       </c>
       <c r="V170" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="171">
@@ -12134,7 +12134,7 @@
         <v>40.5</v>
       </c>
       <c r="V171" t="n">
-        <v>88</v>
+        <v>103</v>
       </c>
     </row>
     <row r="172">
@@ -12204,7 +12204,7 @@
         <v>9.296875</v>
       </c>
       <c r="V172" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="173">
@@ -12274,7 +12274,7 @@
         <v>3.6796875</v>
       </c>
       <c r="V173" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="174">
@@ -12344,7 +12344,7 @@
         <v>4.3515625</v>
       </c>
       <c r="V174" t="n">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="175">
@@ -12414,7 +12414,7 @@
         <v>10</v>
       </c>
       <c r="V175" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="176">
@@ -12484,7 +12484,7 @@
         <v>37</v>
       </c>
       <c r="V176" t="n">
-        <v>141</v>
+        <v>85</v>
       </c>
     </row>
     <row r="177">
@@ -12554,7 +12554,7 @@
         <v>17.296875</v>
       </c>
       <c r="V177" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="178">
@@ -12622,7 +12622,7 @@
         <v>290</v>
       </c>
       <c r="V178" t="n">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="179">
@@ -12690,7 +12690,7 @@
         <v>100</v>
       </c>
       <c r="V179" t="n">
-        <v>77</v>
+        <v>97</v>
       </c>
     </row>
     <row r="180">
@@ -12760,7 +12760,7 @@
         <v>1210</v>
       </c>
       <c r="V180" t="n">
-        <v>705</v>
+        <v>629</v>
       </c>
     </row>
     <row r="181">
@@ -12830,7 +12830,7 @@
         <v>41.1875</v>
       </c>
       <c r="V181" t="n">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="182">
@@ -12900,7 +12900,7 @@
         <v>3658</v>
       </c>
       <c r="V182" t="n">
-        <v>1893</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="183">
@@ -12970,7 +12970,7 @@
         <v>240.75</v>
       </c>
       <c r="V183" t="n">
-        <v>271</v>
+        <v>306</v>
       </c>
     </row>
     <row r="184">
@@ -13040,7 +13040,7 @@
         <v>4804</v>
       </c>
       <c r="V184" t="n">
-        <v>3796</v>
+        <v>3805</v>
       </c>
     </row>
     <row r="185">
@@ -13110,7 +13110,7 @@
         <v>399.75</v>
       </c>
       <c r="V185" t="n">
-        <v>489</v>
+        <v>478</v>
       </c>
     </row>
     <row r="186">
@@ -13174,7 +13174,7 @@
         <v>0</v>
       </c>
       <c r="V186" t="n">
-        <v>38</v>
+        <v>67</v>
       </c>
     </row>
     <row r="187">
@@ -13238,7 +13238,7 @@
         <v>0</v>
       </c>
       <c r="V187" t="n">
-        <v>63</v>
+        <v>129</v>
       </c>
     </row>
     <row r="188">
@@ -13308,7 +13308,7 @@
         <v>250.125</v>
       </c>
       <c r="V188" t="n">
-        <v>181</v>
+        <v>117</v>
       </c>
     </row>
     <row r="189">
@@ -13378,7 +13378,7 @@
         <v>719</v>
       </c>
       <c r="V189" t="n">
-        <v>337</v>
+        <v>454</v>
       </c>
     </row>
     <row r="190">
@@ -13442,7 +13442,7 @@
         <v>0</v>
       </c>
       <c r="V190" t="n">
-        <v>70</v>
+        <v>107</v>
       </c>
     </row>
     <row r="191">
@@ -13512,7 +13512,7 @@
         <v>175.875</v>
       </c>
       <c r="V191" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="192">
@@ -13582,7 +13582,7 @@
         <v>7.2578125</v>
       </c>
       <c r="V192" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="193">
@@ -13652,7 +13652,7 @@
         <v>343.75</v>
       </c>
       <c r="V193" t="n">
-        <v>260</v>
+        <v>225</v>
       </c>
     </row>
     <row r="194">
@@ -13716,7 +13716,7 @@
         <v>0</v>
       </c>
       <c r="V194" t="n">
-        <v>369</v>
+        <v>316</v>
       </c>
     </row>
     <row r="195">
@@ -13780,7 +13780,7 @@
         <v>0</v>
       </c>
       <c r="V195" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="196">
@@ -13850,7 +13850,7 @@
         <v>936</v>
       </c>
       <c r="V196" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
     </row>
     <row r="197">
@@ -13920,7 +13920,7 @@
         <v>40.71875</v>
       </c>
       <c r="V197" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="198">
@@ -13990,7 +13990,7 @@
         <v>2964</v>
       </c>
       <c r="V198" t="n">
-        <v>2021</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="199">
@@ -14060,7 +14060,7 @@
         <v>252.25</v>
       </c>
       <c r="V199" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="200">
@@ -14130,7 +14130,7 @@
         <v>255.875</v>
       </c>
       <c r="V200" t="n">
-        <v>88</v>
+        <v>66</v>
       </c>
     </row>
     <row r="201">
@@ -14200,7 +14200,7 @@
         <v>25.21875</v>
       </c>
       <c r="V201" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="202">
@@ -14270,7 +14270,7 @@
         <v>225.25</v>
       </c>
       <c r="V202" t="n">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="203">
@@ -14334,7 +14334,7 @@
         <v>0</v>
       </c>
       <c r="V203" t="n">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="204">
@@ -14404,7 +14404,7 @@
         <v>26.640625</v>
       </c>
       <c r="V204" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="205">
@@ -14474,7 +14474,7 @@
         <v>324.5</v>
       </c>
       <c r="V205" t="n">
-        <v>261</v>
+        <v>282</v>
       </c>
     </row>
     <row r="206">
@@ -14544,7 +14544,7 @@
         <v>28.171875</v>
       </c>
       <c r="V206" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="207">
@@ -14614,7 +14614,7 @@
         <v>203.75</v>
       </c>
       <c r="V207" t="n">
-        <v>155</v>
+        <v>121</v>
       </c>
     </row>
     <row r="208">
@@ -14810,7 +14810,7 @@
         <v>0</v>
       </c>
       <c r="V210" t="n">
-        <v>34</v>
+        <v>73</v>
       </c>
     </row>
     <row r="211">
@@ -14878,7 +14878,7 @@
         <v>0</v>
       </c>
       <c r="V211" t="n">
-        <v>373</v>
+        <v>197</v>
       </c>
     </row>
     <row r="212">
@@ -14942,7 +14942,7 @@
         <v>0</v>
       </c>
       <c r="V212" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
@@ -15012,7 +15012,7 @@
         <v>902.5</v>
       </c>
       <c r="V213" t="n">
-        <v>229</v>
+        <v>211</v>
       </c>
     </row>
     <row r="214">
@@ -15082,7 +15082,7 @@
         <v>1246</v>
       </c>
       <c r="V214" t="n">
-        <v>428</v>
+        <v>439</v>
       </c>
     </row>
     <row r="215">
@@ -15222,7 +15222,7 @@
         <v>2834</v>
       </c>
       <c r="V216" t="n">
-        <v>1819</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="217">
@@ -15292,7 +15292,7 @@
         <v>138.25</v>
       </c>
       <c r="V217" t="n">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="218">
@@ -15360,7 +15360,7 @@
         <v>0</v>
       </c>
       <c r="V218" t="n">
-        <v>112</v>
+        <v>98</v>
       </c>
     </row>
     <row r="219">
@@ -15424,7 +15424,7 @@
         <v>0</v>
       </c>
       <c r="V219" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="220">
@@ -15494,7 +15494,7 @@
         <v>1100</v>
       </c>
       <c r="V220" t="n">
-        <v>482</v>
+        <v>412</v>
       </c>
     </row>
     <row r="221">
@@ -15564,7 +15564,7 @@
         <v>28.84375</v>
       </c>
       <c r="V221" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="222">
@@ -15634,7 +15634,7 @@
         <v>2388</v>
       </c>
       <c r="V222" t="n">
-        <v>1866</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="223">
@@ -15704,7 +15704,7 @@
         <v>390</v>
       </c>
       <c r="V223" t="n">
-        <v>419</v>
+        <v>430</v>
       </c>
     </row>
     <row r="224">
@@ -15774,7 +15774,7 @@
         <v>10.484375</v>
       </c>
       <c r="V224" t="n">
-        <v>59</v>
+        <v>36</v>
       </c>
     </row>
     <row r="225">
@@ -15844,7 +15844,7 @@
         <v>8.1875</v>
       </c>
       <c r="V225" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="226">
@@ -15912,7 +15912,7 @@
         <v>28.90625</v>
       </c>
       <c r="V226" t="n">
-        <v>165</v>
+        <v>111</v>
       </c>
     </row>
     <row r="227">
@@ -15982,7 +15982,7 @@
         <v>19.515625</v>
       </c>
       <c r="V227" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="228">
@@ -16048,7 +16048,7 @@
         <v>82</v>
       </c>
       <c r="V228" t="n">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="229">
@@ -16110,7 +16110,7 @@
         <v>100</v>
       </c>
       <c r="V229" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="230">
@@ -16180,7 +16180,7 @@
         <v>16.84375</v>
       </c>
       <c r="V230" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="231">
@@ -16250,7 +16250,7 @@
         <v>32.28125</v>
       </c>
       <c r="V231" t="n">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="232">
@@ -16378,7 +16378,7 @@
         <v>0</v>
       </c>
       <c r="V233" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
@@ -16448,7 +16448,7 @@
         <v>289.75</v>
       </c>
       <c r="V234" t="n">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="235">
@@ -16518,7 +16518,7 @@
         <v>12.21875</v>
       </c>
       <c r="V235" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="236">
@@ -16588,7 +16588,7 @@
         <v>625</v>
       </c>
       <c r="V236" t="n">
-        <v>424</v>
+        <v>246</v>
       </c>
     </row>
     <row r="237">
@@ -16658,7 +16658,7 @@
         <v>79.125</v>
       </c>
       <c r="V237" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="238">
@@ -16728,7 +16728,7 @@
         <v>5.33984375</v>
       </c>
       <c r="V238" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="239">
@@ -16798,7 +16798,7 @@
         <v>20.953125</v>
       </c>
       <c r="V239" t="n">
-        <v>109</v>
+        <v>95</v>
       </c>
     </row>
     <row r="240">
@@ -16864,7 +16864,7 @@
         <v>0</v>
       </c>
       <c r="V240" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="241">
@@ -16928,7 +16928,7 @@
         <v>0</v>
       </c>
       <c r="V241" t="n">
-        <v>166</v>
+        <v>291</v>
       </c>
     </row>
     <row r="242">
@@ -16992,7 +16992,7 @@
         <v>0</v>
       </c>
       <c r="V242" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
@@ -17062,7 +17062,7 @@
         <v>1260</v>
       </c>
       <c r="V243" t="n">
-        <v>563</v>
+        <v>510</v>
       </c>
     </row>
     <row r="244">
@@ -17202,7 +17202,7 @@
         <v>2692</v>
       </c>
       <c r="V245" t="n">
-        <v>2897</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="246">
@@ -17272,7 +17272,7 @@
         <v>77.625</v>
       </c>
       <c r="V246" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="247">
@@ -17342,7 +17342,7 @@
         <v>53.9375</v>
       </c>
       <c r="V247" t="n">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="248">
@@ -17410,7 +17410,7 @@
         <v>17.109375</v>
       </c>
       <c r="V248" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="249">
@@ -17480,7 +17480,7 @@
         <v>51.4375</v>
       </c>
       <c r="V249" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="250">
@@ -17550,7 +17550,7 @@
         <v>10.7578125</v>
       </c>
       <c r="V250" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="251">
@@ -17614,7 +17614,7 @@
         <v>0</v>
       </c>
       <c r="V251" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
@@ -17674,7 +17674,7 @@
         <v>0</v>
       </c>
       <c r="V252" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
@@ -17744,7 +17744,7 @@
         <v>4.78125</v>
       </c>
       <c r="V253" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="254">
@@ -17814,7 +17814,7 @@
         <v>3.6640625</v>
       </c>
       <c r="V254" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="255">
@@ -17946,7 +17946,7 @@
         <v>0</v>
       </c>
       <c r="V256" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
@@ -18016,7 +18016,7 @@
         <v>17.140625</v>
       </c>
       <c r="V257" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="258">
@@ -18086,7 +18086,7 @@
         <v>19.03125</v>
       </c>
       <c r="V258" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="259">
@@ -18156,7 +18156,7 @@
         <v>58</v>
       </c>
       <c r="V259" t="n">
-        <v>173</v>
+        <v>138</v>
       </c>
     </row>
     <row r="260">
@@ -18226,7 +18226,7 @@
         <v>123.75</v>
       </c>
       <c r="V260" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="261">
@@ -18286,7 +18286,7 @@
         <v>0</v>
       </c>
       <c r="V261" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="262">
@@ -18416,7 +18416,7 @@
         <v>4.015625</v>
       </c>
       <c r="V263" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="264">
@@ -18486,7 +18486,7 @@
         <v>4.859375</v>
       </c>
       <c r="V264" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="265">
@@ -18556,7 +18556,7 @@
         <v>12.5078125</v>
       </c>
       <c r="V265" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="266">
@@ -18626,7 +18626,7 @@
         <v>70.8125</v>
       </c>
       <c r="V266" t="n">
-        <v>176</v>
+        <v>107</v>
       </c>
     </row>
     <row r="267">
@@ -18696,7 +18696,7 @@
         <v>100.125</v>
       </c>
       <c r="V267" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="268">
@@ -18764,7 +18764,7 @@
         <v>640</v>
       </c>
       <c r="V268" t="n">
-        <v>714</v>
+        <v>660</v>
       </c>
     </row>
     <row r="269">
@@ -18832,7 +18832,7 @@
         <v>293.25</v>
       </c>
       <c r="V269" t="n">
-        <v>211</v>
+        <v>143</v>
       </c>
     </row>
     <row r="270">
@@ -18902,7 +18902,7 @@
         <v>889</v>
       </c>
       <c r="V270" t="n">
-        <v>683</v>
+        <v>652</v>
       </c>
     </row>
     <row r="271">
@@ -18972,7 +18972,7 @@
         <v>170.625</v>
       </c>
       <c r="V271" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="272">
@@ -19042,7 +19042,7 @@
         <v>2090</v>
       </c>
       <c r="V272" t="n">
-        <v>2026</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="273">
@@ -19112,7 +19112,7 @@
         <v>878</v>
       </c>
       <c r="V273" t="n">
-        <v>375</v>
+        <v>406</v>
       </c>
     </row>
     <row r="274">
@@ -19182,7 +19182,7 @@
         <v>3218</v>
       </c>
       <c r="V274" t="n">
-        <v>3228</v>
+        <v>3411</v>
       </c>
     </row>
     <row r="275">
@@ -19252,7 +19252,7 @@
         <v>1200</v>
       </c>
       <c r="V275" t="n">
-        <v>528</v>
+        <v>583</v>
       </c>
     </row>
     <row r="276">
@@ -19316,7 +19316,7 @@
         <v>0</v>
       </c>
       <c r="V276" t="n">
-        <v>45</v>
+        <v>76</v>
       </c>
     </row>
     <row r="277">
@@ -19380,7 +19380,7 @@
         <v>0</v>
       </c>
       <c r="V277" t="n">
-        <v>100</v>
+        <v>189</v>
       </c>
     </row>
     <row r="278">
@@ -19450,7 +19450,7 @@
         <v>167.125</v>
       </c>
       <c r="V278" t="n">
-        <v>202</v>
+        <v>125</v>
       </c>
     </row>
     <row r="279">
@@ -19520,7 +19520,7 @@
         <v>488.75</v>
       </c>
       <c r="V279" t="n">
-        <v>993</v>
+        <v>477</v>
       </c>
     </row>
     <row r="280">
@@ -19584,7 +19584,7 @@
         <v>0</v>
       </c>
       <c r="V280" t="n">
-        <v>60</v>
+        <v>91</v>
       </c>
     </row>
     <row r="281">
@@ -19654,7 +19654,7 @@
         <v>82.8125</v>
       </c>
       <c r="V281" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="282">
@@ -19724,7 +19724,7 @@
         <v>38.9375</v>
       </c>
       <c r="V282" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="283">
@@ -19794,7 +19794,7 @@
         <v>338.75</v>
       </c>
       <c r="V283" t="n">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="284">
@@ -19858,7 +19858,7 @@
         <v>0</v>
       </c>
       <c r="V284" t="n">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="285">
@@ -19924,7 +19924,7 @@
         <v>100</v>
       </c>
       <c r="V285" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="286">
@@ -19994,7 +19994,7 @@
         <v>427</v>
       </c>
       <c r="V286" t="n">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="287">
@@ -20064,7 +20064,7 @@
         <v>177.75</v>
       </c>
       <c r="V287" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="288">
@@ -20134,7 +20134,7 @@
         <v>2066</v>
       </c>
       <c r="V288" t="n">
-        <v>1661</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="289">
@@ -20204,7 +20204,7 @@
         <v>462.25</v>
       </c>
       <c r="V289" t="n">
-        <v>268</v>
+        <v>344</v>
       </c>
     </row>
     <row r="290">
@@ -20274,7 +20274,7 @@
         <v>168.875</v>
       </c>
       <c r="V290" t="n">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="291">
@@ -20344,7 +20344,7 @@
         <v>67.5</v>
       </c>
       <c r="V291" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="292">
@@ -20414,7 +20414,7 @@
         <v>216.25</v>
       </c>
       <c r="V292" t="n">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="293">
@@ -20480,7 +20480,7 @@
         <v>150</v>
       </c>
       <c r="V293" t="n">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="294">
@@ -20550,7 +20550,7 @@
         <v>151.375</v>
       </c>
       <c r="V294" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="295">
@@ -20620,7 +20620,7 @@
         <v>925</v>
       </c>
       <c r="V295" t="n">
-        <v>325</v>
+        <v>374</v>
       </c>
     </row>
     <row r="296">
@@ -20690,7 +20690,7 @@
         <v>171.625</v>
       </c>
       <c r="V296" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="297">
@@ -20760,7 +20760,7 @@
         <v>127</v>
       </c>
       <c r="V297" t="n">
-        <v>268</v>
+        <v>278</v>
       </c>
     </row>
     <row r="298">
@@ -20830,7 +20830,7 @@
         <v>26.875</v>
       </c>
       <c r="V298" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="299">
@@ -20958,7 +20958,7 @@
         <v>0</v>
       </c>
       <c r="V300" t="n">
-        <v>34</v>
+        <v>56</v>
       </c>
     </row>
     <row r="301">
@@ -21028,7 +21028,7 @@
         <v>70</v>
       </c>
       <c r="V301" t="n">
-        <v>317</v>
+        <v>155</v>
       </c>
     </row>
     <row r="302">
@@ -21094,7 +21094,7 @@
         <v>20</v>
       </c>
       <c r="V302" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="303">
@@ -21164,7 +21164,7 @@
         <v>466.75</v>
       </c>
       <c r="V303" t="n">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="304">
@@ -21234,7 +21234,7 @@
         <v>576.5</v>
       </c>
       <c r="V304" t="n">
-        <v>444</v>
+        <v>367</v>
       </c>
     </row>
     <row r="305">
@@ -21304,7 +21304,7 @@
         <v>93.125</v>
       </c>
       <c r="V305" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="306">
@@ -21374,7 +21374,7 @@
         <v>2006</v>
       </c>
       <c r="V306" t="n">
-        <v>1704</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="307">
@@ -21444,7 +21444,7 @@
         <v>307.75</v>
       </c>
       <c r="V307" t="n">
-        <v>274</v>
+        <v>233</v>
       </c>
     </row>
     <row r="308">
@@ -21512,7 +21512,7 @@
         <v>20</v>
       </c>
       <c r="V308" t="n">
-        <v>113</v>
+        <v>80</v>
       </c>
     </row>
     <row r="309">
@@ -21578,7 +21578,7 @@
         <v>80</v>
       </c>
       <c r="V309" t="n">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="310">
@@ -21648,7 +21648,7 @@
         <v>617.5</v>
       </c>
       <c r="V310" t="n">
-        <v>459</v>
+        <v>403</v>
       </c>
     </row>
     <row r="311">
@@ -21788,7 +21788,7 @@
         <v>1639</v>
       </c>
       <c r="V312" t="n">
-        <v>1547</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="313">
@@ -21858,7 +21858,7 @@
         <v>722.5</v>
       </c>
       <c r="V313" t="n">
-        <v>377</v>
+        <v>442</v>
       </c>
     </row>
     <row r="314">
@@ -21928,7 +21928,7 @@
         <v>11.09375</v>
       </c>
       <c r="V314" t="n">
-        <v>52</v>
+        <v>33</v>
       </c>
     </row>
     <row r="315">
@@ -21998,7 +21998,7 @@
         <v>16.1875</v>
       </c>
       <c r="V315" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="316">
@@ -22068,7 +22068,7 @@
         <v>57.53125</v>
       </c>
       <c r="V316" t="n">
-        <v>117</v>
+        <v>58</v>
       </c>
     </row>
     <row r="317">
@@ -22138,7 +22138,7 @@
         <v>23.109375</v>
       </c>
       <c r="V317" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="318">
@@ -22206,7 +22206,7 @@
         <v>64.75</v>
       </c>
       <c r="V318" t="n">
-        <v>120</v>
+        <v>92</v>
       </c>
     </row>
     <row r="319">
@@ -22270,7 +22270,7 @@
         <v>70</v>
       </c>
       <c r="V319" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="320">
@@ -22340,7 +22340,7 @@
         <v>10.2265625</v>
       </c>
       <c r="V320" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="321">
@@ -22410,7 +22410,7 @@
         <v>14.84375</v>
       </c>
       <c r="V321" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="322">
@@ -22670,7 +22670,7 @@
         <v>173.875</v>
       </c>
       <c r="V325" t="n">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="326">
@@ -22810,7 +22810,7 @@
         <v>435.5</v>
       </c>
       <c r="V327" t="n">
-        <v>283</v>
+        <v>257</v>
       </c>
     </row>
     <row r="328">
@@ -22880,7 +22880,7 @@
         <v>95</v>
       </c>
       <c r="V328" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="329">
@@ -22950,7 +22950,7 @@
         <v>6.76953125</v>
       </c>
       <c r="V329" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="330">
@@ -23020,7 +23020,7 @@
         <v>27.859375</v>
       </c>
       <c r="V330" t="n">
-        <v>109</v>
+        <v>57</v>
       </c>
     </row>
     <row r="331">
@@ -23150,7 +23150,7 @@
         <v>0</v>
       </c>
       <c r="V332" t="n">
-        <v>113</v>
+        <v>195</v>
       </c>
     </row>
     <row r="333">
@@ -23216,7 +23216,7 @@
         <v>30</v>
       </c>
       <c r="V333" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="334">
@@ -23286,7 +23286,7 @@
         <v>693.5</v>
       </c>
       <c r="V334" t="n">
-        <v>494</v>
+        <v>620</v>
       </c>
     </row>
     <row r="335">
@@ -23356,7 +23356,7 @@
         <v>34.1875</v>
       </c>
       <c r="V335" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="336">
@@ -23426,7 +23426,7 @@
         <v>2092</v>
       </c>
       <c r="V336" t="n">
-        <v>2324</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="337">
@@ -23496,7 +23496,7 @@
         <v>61.625</v>
       </c>
       <c r="V337" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="338">
@@ -23566,7 +23566,7 @@
         <v>163.5</v>
       </c>
       <c r="V338" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="339">
@@ -23636,7 +23636,7 @@
         <v>22.5</v>
       </c>
       <c r="V339" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="340">
@@ -23706,7 +23706,7 @@
         <v>51.84375</v>
       </c>
       <c r="V340" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="341">
@@ -23776,7 +23776,7 @@
         <v>19.328125</v>
       </c>
       <c r="V341" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="342">
@@ -23900,7 +23900,7 @@
         <v>0</v>
       </c>
       <c r="V343" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344">
@@ -23970,7 +23970,7 @@
         <v>2.986328125</v>
       </c>
       <c r="V344" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="345">
@@ -24110,7 +24110,7 @@
         <v>6.48046875</v>
       </c>
       <c r="V346" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="347">
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="V347" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348">
@@ -24242,7 +24242,7 @@
         <v>23.765625</v>
       </c>
       <c r="V348" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="349">
@@ -24382,7 +24382,7 @@
         <v>102.6875</v>
       </c>
       <c r="V350" t="n">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="351">
@@ -24452,7 +24452,7 @@
         <v>29.578125</v>
       </c>
       <c r="V351" t="n">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="352">
@@ -24644,7 +24644,7 @@
         <v>4.859375</v>
       </c>
       <c r="V354" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="355">
@@ -24714,7 +24714,7 @@
         <v>22.765625</v>
       </c>
       <c r="V355" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="356">
@@ -24848,7 +24848,7 @@
         <v>29.84375</v>
       </c>
       <c r="V357" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="358">
@@ -24918,7 +24918,7 @@
         <v>104.5</v>
       </c>
       <c r="V358" t="n">
-        <v>210</v>
+        <v>108</v>
       </c>
     </row>
     <row r="359">
@@ -24988,7 +24988,7 @@
         <v>58.09375</v>
       </c>
       <c r="V359" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
     </row>
     <row r="360">
@@ -25058,7 +25058,7 @@
         <v>695</v>
       </c>
       <c r="V360" t="n">
-        <v>1289</v>
+        <v>995</v>
       </c>
     </row>
     <row r="361">
@@ -25128,7 +25128,7 @@
         <v>276</v>
       </c>
       <c r="V361" t="n">
-        <v>394</v>
+        <v>328</v>
       </c>
     </row>
     <row r="362">
@@ -25198,7 +25198,7 @@
         <v>931</v>
       </c>
       <c r="V362" t="n">
-        <v>727</v>
+        <v>996</v>
       </c>
     </row>
     <row r="363">
@@ -25268,7 +25268,7 @@
         <v>145</v>
       </c>
       <c r="V363" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="364">
@@ -25338,7 +25338,7 @@
         <v>2452</v>
       </c>
       <c r="V364" t="n">
-        <v>3265</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="365">
@@ -25408,7 +25408,7 @@
         <v>703.5</v>
       </c>
       <c r="V365" t="n">
-        <v>406</v>
+        <v>519</v>
       </c>
     </row>
     <row r="366">
@@ -25478,7 +25478,7 @@
         <v>5460</v>
       </c>
       <c r="V366" t="n">
-        <v>5779</v>
+        <v>6326</v>
       </c>
     </row>
     <row r="367">
@@ -25548,7 +25548,7 @@
         <v>1069</v>
       </c>
       <c r="V367" t="n">
-        <v>856</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="368">
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="V368" t="n">
-        <v>96</v>
+        <v>168</v>
       </c>
     </row>
     <row r="369">
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="V369" t="n">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="370">
@@ -25748,7 +25748,7 @@
         <v>190</v>
       </c>
       <c r="V370" t="n">
-        <v>282</v>
+        <v>199</v>
       </c>
     </row>
     <row r="371">
@@ -25818,7 +25818,7 @@
         <v>633</v>
       </c>
       <c r="V371" t="n">
-        <v>1306</v>
+        <v>773</v>
       </c>
     </row>
     <row r="372">
@@ -25884,7 +25884,7 @@
         <v>0</v>
       </c>
       <c r="V372" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="373">
@@ -25954,7 +25954,7 @@
         <v>103.4375</v>
       </c>
       <c r="V373" t="n">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="374">
@@ -26024,7 +26024,7 @@
         <v>27.453125</v>
       </c>
       <c r="V374" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="375">
@@ -26094,7 +26094,7 @@
         <v>498</v>
       </c>
       <c r="V375" t="n">
-        <v>357</v>
+        <v>328</v>
       </c>
     </row>
     <row r="376">
@@ -26160,7 +26160,7 @@
         <v>0</v>
       </c>
       <c r="V376" t="n">
-        <v>508</v>
+        <v>494</v>
       </c>
     </row>
     <row r="377">
@@ -26230,7 +26230,7 @@
         <v>115</v>
       </c>
       <c r="V377" t="n">
-        <v>84</v>
+        <v>103</v>
       </c>
     </row>
     <row r="378">
@@ -26300,7 +26300,7 @@
         <v>487.75</v>
       </c>
       <c r="V378" t="n">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="379">
@@ -26370,7 +26370,7 @@
         <v>114.5</v>
       </c>
       <c r="V379" t="n">
-        <v>90</v>
+        <v>103</v>
       </c>
     </row>
     <row r="380">
@@ -26440,7 +26440,7 @@
         <v>2784</v>
       </c>
       <c r="V380" t="n">
-        <v>4041</v>
+        <v>3853</v>
       </c>
     </row>
     <row r="381">
@@ -26510,7 +26510,7 @@
         <v>661</v>
       </c>
       <c r="V381" t="n">
-        <v>439</v>
+        <v>429</v>
       </c>
     </row>
     <row r="382">
@@ -26580,7 +26580,7 @@
         <v>139</v>
       </c>
       <c r="V382" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="383">
@@ -26650,7 +26650,7 @@
         <v>32</v>
       </c>
       <c r="V383" t="n">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="384">
@@ -26720,7 +26720,7 @@
         <v>183.375</v>
       </c>
       <c r="V384" t="n">
-        <v>143</v>
+        <v>163</v>
       </c>
     </row>
     <row r="385">
@@ -26790,7 +26790,7 @@
         <v>189.75</v>
       </c>
       <c r="V385" t="n">
-        <v>84</v>
+        <v>101</v>
       </c>
     </row>
     <row r="386">
@@ -26860,7 +26860,7 @@
         <v>81.1875</v>
       </c>
       <c r="V386" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="387">
@@ -26930,7 +26930,7 @@
         <v>873.5</v>
       </c>
       <c r="V387" t="n">
-        <v>545</v>
+        <v>663</v>
       </c>
     </row>
     <row r="388">
@@ -27000,7 +27000,7 @@
         <v>100</v>
       </c>
       <c r="V388" t="n">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="389">
@@ -27070,7 +27070,7 @@
         <v>626</v>
       </c>
       <c r="V389" t="n">
-        <v>390</v>
+        <v>370</v>
       </c>
     </row>
     <row r="390">
@@ -27140,7 +27140,7 @@
         <v>17.234375</v>
       </c>
       <c r="V390" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="391">
@@ -27202,7 +27202,7 @@
         <v>0</v>
       </c>
       <c r="V391" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="392">
@@ -27268,7 +27268,7 @@
         <v>0</v>
       </c>
       <c r="V392" t="n">
-        <v>76</v>
+        <v>119</v>
       </c>
     </row>
     <row r="393">
@@ -27328,7 +27328,7 @@
         <v>0</v>
       </c>
       <c r="V393" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="394">
@@ -27398,7 +27398,7 @@
         <v>90</v>
       </c>
       <c r="V394" t="n">
-        <v>577</v>
+        <v>385</v>
       </c>
     </row>
     <row r="395">
@@ -27468,7 +27468,7 @@
         <v>30.828125</v>
       </c>
       <c r="V395" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="396">
@@ -27538,7 +27538,7 @@
         <v>535.5</v>
       </c>
       <c r="V396" t="n">
-        <v>297</v>
+        <v>321</v>
       </c>
     </row>
     <row r="397">
@@ -27608,7 +27608,7 @@
         <v>767</v>
       </c>
       <c r="V397" t="n">
-        <v>641</v>
+        <v>734</v>
       </c>
     </row>
     <row r="398">
@@ -27678,7 +27678,7 @@
         <v>71</v>
       </c>
       <c r="V398" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="399">
@@ -27748,7 +27748,7 @@
         <v>3224</v>
       </c>
       <c r="V399" t="n">
-        <v>3538</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="400">
@@ -27818,7 +27818,7 @@
         <v>388</v>
       </c>
       <c r="V400" t="n">
-        <v>329</v>
+        <v>344</v>
       </c>
     </row>
     <row r="401">
@@ -27888,7 +27888,7 @@
         <v>20</v>
       </c>
       <c r="V401" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="402">
@@ -27958,7 +27958,7 @@
         <v>101.5</v>
       </c>
       <c r="V402" t="n">
-        <v>68</v>
+        <v>84</v>
       </c>
     </row>
     <row r="403">
@@ -28028,7 +28028,7 @@
         <v>751</v>
       </c>
       <c r="V403" t="n">
-        <v>659</v>
+        <v>718</v>
       </c>
     </row>
     <row r="404">
@@ -28098,7 +28098,7 @@
         <v>99</v>
       </c>
       <c r="V404" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="405">
@@ -28168,7 +28168,7 @@
         <v>2670</v>
       </c>
       <c r="V405" t="n">
-        <v>3870</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="406">
@@ -28238,7 +28238,7 @@
         <v>961.5</v>
       </c>
       <c r="V406" t="n">
-        <v>646</v>
+        <v>820</v>
       </c>
     </row>
     <row r="407">
@@ -28308,7 +28308,7 @@
         <v>11.984375</v>
       </c>
       <c r="V407" t="n">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="408">
@@ -28378,7 +28378,7 @@
         <v>22.671875</v>
       </c>
       <c r="V408" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="409">
@@ -28448,7 +28448,7 @@
         <v>58.375</v>
       </c>
       <c r="V409" t="n">
-        <v>213</v>
+        <v>167</v>
       </c>
     </row>
     <row r="410">
@@ -28518,7 +28518,7 @@
         <v>33.59375</v>
       </c>
       <c r="V410" t="n">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="411">
@@ -28586,7 +28586,7 @@
         <v>89.8125</v>
       </c>
       <c r="V411" t="n">
-        <v>183</v>
+        <v>166</v>
       </c>
     </row>
     <row r="412">
@@ -28650,7 +28650,7 @@
         <v>0</v>
       </c>
       <c r="V412" t="n">
-        <v>30</v>
+        <v>58</v>
       </c>
     </row>
     <row r="413">
@@ -28720,7 +28720,7 @@
         <v>13.859375</v>
       </c>
       <c r="V413" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="414">
@@ -28790,7 +28790,7 @@
         <v>19.234375</v>
       </c>
       <c r="V414" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="415">
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="V415" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="416">
@@ -28920,7 +28920,7 @@
         <v>0</v>
       </c>
       <c r="V416" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="417">
@@ -28984,7 +28984,7 @@
         <v>16.421875</v>
       </c>
       <c r="V417" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="418">
@@ -29054,7 +29054,7 @@
         <v>167.125</v>
       </c>
       <c r="V418" t="n">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="419">
@@ -29124,7 +29124,7 @@
         <v>26.9375</v>
       </c>
       <c r="V419" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="420">
@@ -29194,7 +29194,7 @@
         <v>495.75</v>
       </c>
       <c r="V420" t="n">
-        <v>619</v>
+        <v>418</v>
       </c>
     </row>
     <row r="421">
@@ -29264,7 +29264,7 @@
         <v>155</v>
       </c>
       <c r="V421" t="n">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="422">
@@ -29334,7 +29334,7 @@
         <v>10.4921875</v>
       </c>
       <c r="V422" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="423">
@@ -29404,7 +29404,7 @@
         <v>55.5625</v>
       </c>
       <c r="V423" t="n">
-        <v>234</v>
+        <v>172</v>
       </c>
     </row>
     <row r="424">
@@ -29468,7 +29468,7 @@
         <v>0</v>
       </c>
       <c r="V424" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="425">
@@ -29538,7 +29538,7 @@
         <v>0</v>
       </c>
       <c r="V425" t="n">
-        <v>260</v>
+        <v>181</v>
       </c>
     </row>
     <row r="426">
@@ -29606,7 +29606,7 @@
         <v>43.71875</v>
       </c>
       <c r="V426" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="427">
@@ -29676,7 +29676,7 @@
         <v>763</v>
       </c>
       <c r="V427" t="n">
-        <v>717</v>
+        <v>826</v>
       </c>
     </row>
     <row r="428">
@@ -29746,7 +29746,7 @@
         <v>33</v>
       </c>
       <c r="V428" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="429">
@@ -29816,7 +29816,7 @@
         <v>3532</v>
       </c>
       <c r="V429" t="n">
-        <v>4921</v>
+        <v>5211</v>
       </c>
     </row>
     <row r="430">
@@ -29886,7 +29886,7 @@
         <v>155</v>
       </c>
       <c r="V430" t="n">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="431">
@@ -29956,7 +29956,7 @@
         <v>168.75</v>
       </c>
       <c r="V431" t="n">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="432">
@@ -30026,7 +30026,7 @@
         <v>53.5625</v>
       </c>
       <c r="V432" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="433">
@@ -30096,7 +30096,7 @@
         <v>109</v>
       </c>
       <c r="V433" t="n">
-        <v>75</v>
+        <v>97</v>
       </c>
     </row>
     <row r="434">
@@ -30166,7 +30166,7 @@
         <v>22</v>
       </c>
       <c r="V434" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="435">
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="V435" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="436">
@@ -30286,7 +30286,7 @@
         <v>0</v>
       </c>
       <c r="V436" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="437">
@@ -30356,7 +30356,7 @@
         <v>9.8671875</v>
       </c>
       <c r="V437" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="438">
@@ -30426,7 +30426,7 @@
         <v>8.2265625</v>
       </c>
       <c r="V438" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="439">
@@ -30496,7 +30496,7 @@
         <v>22</v>
       </c>
       <c r="V439" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="440">
@@ -30558,7 +30558,7 @@
         <v>0</v>
       </c>
       <c r="V440" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="441">
@@ -30628,7 +30628,7 @@
         <v>46</v>
       </c>
       <c r="V441" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="442">
@@ -30698,7 +30698,7 @@
         <v>26.1875</v>
       </c>
       <c r="V442" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="443">
@@ -30768,7 +30768,7 @@
         <v>254.375</v>
       </c>
       <c r="V443" t="n">
-        <v>428</v>
+        <v>290</v>
       </c>
     </row>
     <row r="444">
@@ -30838,7 +30838,7 @@
         <v>222.625</v>
       </c>
       <c r="V444" t="n">
-        <v>171</v>
+        <v>150</v>
       </c>
     </row>
     <row r="445">
@@ -30898,7 +30898,7 @@
         <v>0</v>
       </c>
       <c r="V445" t="n">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="446">
@@ -30960,7 +30960,7 @@
         <v>0</v>
       </c>
       <c r="V446" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="447">
@@ -31030,7 +31030,7 @@
         <v>10.3828125</v>
       </c>
       <c r="V447" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="448">
@@ -31100,7 +31100,7 @@
         <v>52.84375</v>
       </c>
       <c r="V448" t="n">
-        <v>73</v>
+        <v>96</v>
       </c>
     </row>
     <row r="449">
@@ -31162,7 +31162,7 @@
         <v>0</v>
       </c>
       <c r="V449" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="450">
@@ -31232,7 +31232,7 @@
         <v>85.1875</v>
       </c>
       <c r="V450" t="n">
-        <v>89</v>
+        <v>101</v>
       </c>
     </row>
     <row r="451">
@@ -31302,7 +31302,7 @@
         <v>222.125</v>
       </c>
       <c r="V451" t="n">
-        <v>232</v>
+        <v>186</v>
       </c>
     </row>
     <row r="452">
@@ -31372,7 +31372,7 @@
         <v>233</v>
       </c>
       <c r="V452" t="n">
-        <v>115</v>
+        <v>138</v>
       </c>
     </row>
     <row r="453">
@@ -31442,7 +31442,7 @@
         <v>1380</v>
       </c>
       <c r="V453" t="n">
-        <v>426</v>
+        <v>772</v>
       </c>
     </row>
     <row r="454">
@@ -31512,7 +31512,7 @@
         <v>402.5</v>
       </c>
       <c r="V454" t="n">
-        <v>268</v>
+        <v>149</v>
       </c>
     </row>
     <row r="455">
@@ -31582,7 +31582,7 @@
         <v>1015</v>
       </c>
       <c r="V455" t="n">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="456">
@@ -31652,7 +31652,7 @@
         <v>145</v>
       </c>
       <c r="V456" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="457">
@@ -31722,7 +31722,7 @@
         <v>3360</v>
       </c>
       <c r="V457" t="n">
-        <v>1352</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="458">
@@ -31792,7 +31792,7 @@
         <v>688.5</v>
       </c>
       <c r="V458" t="n">
-        <v>193</v>
+        <v>309</v>
       </c>
     </row>
     <row r="459">
@@ -31862,7 +31862,7 @@
         <v>7260</v>
       </c>
       <c r="V459" t="n">
-        <v>3558</v>
+        <v>4094</v>
       </c>
     </row>
     <row r="460">
@@ -31932,7 +31932,7 @@
         <v>1201</v>
       </c>
       <c r="V460" t="n">
-        <v>578</v>
+        <v>750</v>
       </c>
     </row>
     <row r="461">
@@ -31996,7 +31996,7 @@
         <v>53.21875</v>
       </c>
       <c r="V461" t="n">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="462">
@@ -32064,7 +32064,7 @@
         <v>107.9375</v>
       </c>
       <c r="V462" t="n">
-        <v>67</v>
+        <v>113</v>
       </c>
     </row>
     <row r="463">
@@ -32134,7 +32134,7 @@
         <v>345.75</v>
       </c>
       <c r="V463" t="n">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="464">
@@ -32204,7 +32204,7 @@
         <v>1184</v>
       </c>
       <c r="V464" t="n">
-        <v>656</v>
+        <v>462</v>
       </c>
     </row>
     <row r="465">
@@ -32272,7 +32272,7 @@
         <v>123.25</v>
       </c>
       <c r="V465" t="n">
-        <v>53</v>
+        <v>97</v>
       </c>
     </row>
     <row r="466">
@@ -32342,7 +32342,7 @@
         <v>109.375</v>
       </c>
       <c r="V466" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="467">
@@ -32412,7 +32412,7 @@
         <v>22.046875</v>
       </c>
       <c r="V467" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="468">
@@ -32482,7 +32482,7 @@
         <v>678.5</v>
       </c>
       <c r="V468" t="n">
-        <v>135</v>
+        <v>199</v>
       </c>
     </row>
     <row r="469">
@@ -32550,7 +32550,7 @@
         <v>532.5</v>
       </c>
       <c r="V469" t="n">
-        <v>227</v>
+        <v>172</v>
       </c>
     </row>
     <row r="470">
@@ -32620,7 +32620,7 @@
         <v>126.5</v>
       </c>
       <c r="V470" t="n">
-        <v>37</v>
+        <v>55</v>
       </c>
     </row>
     <row r="471">
@@ -32690,7 +32690,7 @@
         <v>666</v>
       </c>
       <c r="V471" t="n">
-        <v>200</v>
+        <v>228</v>
       </c>
     </row>
     <row r="472">
@@ -32760,7 +32760,7 @@
         <v>112.75</v>
       </c>
       <c r="V472" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="473">
@@ -32830,7 +32830,7 @@
         <v>4712</v>
       </c>
       <c r="V473" t="n">
-        <v>1280</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="474">
@@ -32900,7 +32900,7 @@
         <v>770</v>
       </c>
       <c r="V474" t="n">
-        <v>190</v>
+        <v>270</v>
       </c>
     </row>
     <row r="475">
@@ -32970,7 +32970,7 @@
         <v>222.25</v>
       </c>
       <c r="V475" t="n">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="476">
@@ -33040,7 +33040,7 @@
         <v>38.78125</v>
       </c>
       <c r="V476" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="477">
@@ -33110,7 +33110,7 @@
         <v>348</v>
       </c>
       <c r="V477" t="n">
-        <v>88</v>
+        <v>135</v>
       </c>
     </row>
     <row r="478">
@@ -33180,7 +33180,7 @@
         <v>195.875</v>
       </c>
       <c r="V478" t="n">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="479">
@@ -33320,7 +33320,7 @@
         <v>863</v>
       </c>
       <c r="V480" t="n">
-        <v>209</v>
+        <v>312</v>
       </c>
     </row>
     <row r="481">
@@ -33390,7 +33390,7 @@
         <v>122</v>
       </c>
       <c r="V481" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="482">
@@ -33460,7 +33460,7 @@
         <v>615</v>
       </c>
       <c r="V482" t="n">
-        <v>109</v>
+        <v>199</v>
       </c>
     </row>
     <row r="483">
@@ -33530,7 +33530,7 @@
         <v>19.953125</v>
       </c>
       <c r="V483" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="484">
@@ -33658,7 +33658,7 @@
         <v>0</v>
       </c>
       <c r="V485" t="n">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="486">
@@ -33728,7 +33728,7 @@
         <v>492</v>
       </c>
       <c r="V486" t="n">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="487">
@@ -33868,7 +33868,7 @@
         <v>505.75</v>
       </c>
       <c r="V488" t="n">
-        <v>208</v>
+        <v>189</v>
       </c>
     </row>
     <row r="489">
@@ -33938,7 +33938,7 @@
         <v>872.5</v>
       </c>
       <c r="V489" t="n">
-        <v>340</v>
+        <v>418</v>
       </c>
     </row>
     <row r="490">
@@ -34008,7 +34008,7 @@
         <v>69</v>
       </c>
       <c r="V490" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="491">
@@ -34078,7 +34078,7 @@
         <v>4108</v>
       </c>
       <c r="V491" t="n">
-        <v>1251</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="492">
@@ -34148,7 +34148,7 @@
         <v>413.75</v>
       </c>
       <c r="V492" t="n">
-        <v>171</v>
+        <v>237</v>
       </c>
     </row>
     <row r="493">
@@ -34218,7 +34218,7 @@
         <v>145.375</v>
       </c>
       <c r="V493" t="n">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="494">
@@ -34288,7 +34288,7 @@
         <v>68.5</v>
       </c>
       <c r="V494" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="495">
@@ -34358,7 +34358,7 @@
         <v>834.5</v>
       </c>
       <c r="V495" t="n">
-        <v>308</v>
+        <v>441</v>
       </c>
     </row>
     <row r="496">
@@ -34428,7 +34428,7 @@
         <v>88</v>
       </c>
       <c r="V496" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="497">
@@ -34498,7 +34498,7 @@
         <v>4680</v>
       </c>
       <c r="V497" t="n">
-        <v>1264</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="498">
@@ -34568,7 +34568,7 @@
         <v>1061</v>
       </c>
       <c r="V498" t="n">
-        <v>399</v>
+        <v>603</v>
       </c>
     </row>
     <row r="499">
@@ -34638,7 +34638,7 @@
         <v>31.265625</v>
       </c>
       <c r="V499" t="n">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="500">
@@ -34708,7 +34708,7 @@
         <v>17.90625</v>
       </c>
       <c r="V500" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="501">
@@ -34778,7 +34778,7 @@
         <v>79.75</v>
       </c>
       <c r="V501" t="n">
-        <v>103</v>
+        <v>46</v>
       </c>
     </row>
     <row r="502">
@@ -34848,7 +34848,7 @@
         <v>44.59375</v>
       </c>
       <c r="V502" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="503">
@@ -34916,7 +34916,7 @@
         <v>276.5</v>
       </c>
       <c r="V503" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="504">
@@ -34980,7 +34980,7 @@
         <v>160</v>
       </c>
       <c r="V504" t="n">
-        <v>3</v>
+        <v>44</v>
       </c>
     </row>
     <row r="505">
@@ -35040,7 +35040,7 @@
         <v>0</v>
       </c>
       <c r="V505" t="n">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row r="506">
@@ -35110,7 +35110,7 @@
         <v>24.84375</v>
       </c>
       <c r="V506" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="507">
@@ -35180,7 +35180,7 @@
         <v>87.125</v>
       </c>
       <c r="V507" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="508">
@@ -35376,7 +35376,7 @@
         <v>26.734375</v>
       </c>
       <c r="V510" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="511">
@@ -35516,7 +35516,7 @@
         <v>44.8125</v>
       </c>
       <c r="V512" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="513">
@@ -35586,7 +35586,7 @@
         <v>1019</v>
       </c>
       <c r="V513" t="n">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="514">
@@ -35656,7 +35656,7 @@
         <v>182</v>
       </c>
       <c r="V514" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="515">
@@ -35726,7 +35726,7 @@
         <v>38.125</v>
       </c>
       <c r="V515" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="516">
@@ -35796,7 +35796,7 @@
         <v>156.5</v>
       </c>
       <c r="V516" t="n">
-        <v>111</v>
+        <v>54</v>
       </c>
     </row>
     <row r="517">
@@ -35930,7 +35930,7 @@
         <v>352</v>
       </c>
       <c r="V518" t="n">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="519">
@@ -36000,7 +36000,7 @@
         <v>56.03125</v>
       </c>
       <c r="V519" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="520">
@@ -36070,7 +36070,7 @@
         <v>1139</v>
       </c>
       <c r="V520" t="n">
-        <v>504</v>
+        <v>620</v>
       </c>
     </row>
     <row r="521">
@@ -36140,7 +36140,7 @@
         <v>34</v>
       </c>
       <c r="V521" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="522">
@@ -36210,7 +36210,7 @@
         <v>5632</v>
       </c>
       <c r="V522" t="n">
-        <v>1976</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="523">
@@ -36280,7 +36280,7 @@
         <v>168</v>
       </c>
       <c r="V523" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="524">
@@ -36350,7 +36350,7 @@
         <v>180.125</v>
       </c>
       <c r="V524" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="525">
@@ -36420,7 +36420,7 @@
         <v>57.15625</v>
       </c>
       <c r="V525" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="526">
@@ -36490,7 +36490,7 @@
         <v>112</v>
       </c>
       <c r="V526" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="527">
@@ -36560,7 +36560,7 @@
         <v>23</v>
       </c>
       <c r="V527" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="528">
@@ -36620,7 +36620,7 @@
         <v>0</v>
       </c>
       <c r="V528" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529">
@@ -36760,7 +36760,7 @@
         <v>17.1875</v>
       </c>
       <c r="V530" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="531">
@@ -36830,7 +36830,7 @@
         <v>23</v>
       </c>
       <c r="V531" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532">
@@ -36892,7 +36892,7 @@
         <v>0</v>
       </c>
       <c r="V532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533">
@@ -37032,7 +37032,7 @@
         <v>38.90625</v>
       </c>
       <c r="V534" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="535">
@@ -37102,7 +37102,7 @@
         <v>502.5</v>
       </c>
       <c r="V535" t="n">
-        <v>221</v>
+        <v>246</v>
       </c>
     </row>
     <row r="536">
@@ -37172,7 +37172,7 @@
         <v>306</v>
       </c>
       <c r="V536" t="n">
-        <v>107</v>
+        <v>77</v>
       </c>
     </row>
     <row r="537">
@@ -37232,7 +37232,7 @@
         <v>0</v>
       </c>
       <c r="V537" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538">
@@ -37364,7 +37364,7 @@
         <v>30.4375</v>
       </c>
       <c r="V539" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="540">
@@ -37434,7 +37434,7 @@
         <v>57.6875</v>
       </c>
       <c r="V540" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="541">
@@ -37566,7 +37566,7 @@
         <v>95</v>
       </c>
       <c r="V542" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="543">
@@ -37636,7 +37636,7 @@
         <v>225.375</v>
       </c>
       <c r="V543" t="n">
-        <v>185</v>
+        <v>113</v>
       </c>
     </row>
     <row r="544">
@@ -37706,7 +37706,7 @@
         <v>288</v>
       </c>
       <c r="V544" t="n">
-        <v>57</v>
+        <v>91</v>
       </c>
     </row>
     <row r="545">
@@ -37776,7 +37776,7 @@
         <v>2418</v>
       </c>
       <c r="V545" t="n">
-        <v>2446</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="546">
@@ -37846,7 +37846,7 @@
         <v>287</v>
       </c>
       <c r="V546" t="n">
-        <v>437</v>
+        <v>368</v>
       </c>
     </row>
     <row r="547">
@@ -37916,7 +37916,7 @@
         <v>971.5</v>
       </c>
       <c r="V547" t="n">
-        <v>844</v>
+        <v>954</v>
       </c>
     </row>
     <row r="548">
@@ -37986,7 +37986,7 @@
         <v>145</v>
       </c>
       <c r="V548" t="n">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="549">
@@ -38056,7 +38056,7 @@
         <v>3492</v>
       </c>
       <c r="V549" t="n">
-        <v>3156</v>
+        <v>3309</v>
       </c>
     </row>
     <row r="550">
@@ -38126,7 +38126,7 @@
         <v>729</v>
       </c>
       <c r="V550" t="n">
-        <v>548</v>
+        <v>584</v>
       </c>
     </row>
     <row r="551">
@@ -38196,7 +38196,7 @@
         <v>8108</v>
       </c>
       <c r="V551" t="n">
-        <v>7807</v>
+        <v>7661</v>
       </c>
     </row>
     <row r="552">
@@ -38266,7 +38266,7 @@
         <v>1168</v>
       </c>
       <c r="V552" t="n">
-        <v>1266</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="553">
@@ -38330,7 +38330,7 @@
         <v>0</v>
       </c>
       <c r="V553" t="n">
-        <v>168</v>
+        <v>223</v>
       </c>
     </row>
     <row r="554">
@@ -38400,7 +38400,7 @@
         <v>191.375</v>
       </c>
       <c r="V554" t="n">
-        <v>245</v>
+        <v>197</v>
       </c>
     </row>
     <row r="555">
@@ -38460,7 +38460,7 @@
         <v>0</v>
       </c>
       <c r="V555" t="n">
-        <v>162</v>
+        <v>26</v>
       </c>
     </row>
     <row r="556">
@@ -38530,7 +38530,7 @@
         <v>360.75</v>
       </c>
       <c r="V556" t="n">
-        <v>370</v>
+        <v>322</v>
       </c>
     </row>
     <row r="557">
@@ -38600,7 +38600,7 @@
         <v>2033</v>
       </c>
       <c r="V557" t="n">
-        <v>1925</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="558">
@@ -38670,7 +38670,7 @@
         <v>228.875</v>
       </c>
       <c r="V558" t="n">
-        <v>238</v>
+        <v>186</v>
       </c>
     </row>
     <row r="559">
@@ -38740,7 +38740,7 @@
         <v>131.875</v>
       </c>
       <c r="V559" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="560">
@@ -38810,7 +38810,7 @@
         <v>28.53125</v>
       </c>
       <c r="V560" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="561">
@@ -38880,7 +38880,7 @@
         <v>775.5</v>
       </c>
       <c r="V561" t="n">
-        <v>755</v>
+        <v>669</v>
       </c>
     </row>
     <row r="562">
@@ -38950,7 +38950,7 @@
         <v>814</v>
       </c>
       <c r="V562" t="n">
-        <v>785</v>
+        <v>569</v>
       </c>
     </row>
     <row r="563">
@@ -39020,7 +39020,7 @@
         <v>119.5625</v>
       </c>
       <c r="V563" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="564">
@@ -39090,7 +39090,7 @@
         <v>731</v>
       </c>
       <c r="V564" t="n">
-        <v>545</v>
+        <v>555</v>
       </c>
     </row>
     <row r="565">
@@ -39160,7 +39160,7 @@
         <v>119.0625</v>
       </c>
       <c r="V565" t="n">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="566">
@@ -39230,7 +39230,7 @@
         <v>5784</v>
       </c>
       <c r="V566" t="n">
-        <v>4763</v>
+        <v>4909</v>
       </c>
     </row>
     <row r="567">
@@ -39300,7 +39300,7 @@
         <v>686.5</v>
       </c>
       <c r="V567" t="n">
-        <v>634</v>
+        <v>613</v>
       </c>
     </row>
     <row r="568">
@@ -39370,7 +39370,7 @@
         <v>206.875</v>
       </c>
       <c r="V568" t="n">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="569">
@@ -39440,7 +39440,7 @@
         <v>35.09375</v>
       </c>
       <c r="V569" t="n">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="570">
@@ -39510,7 +39510,7 @@
         <v>451.5</v>
       </c>
       <c r="V570" t="n">
-        <v>267</v>
+        <v>380</v>
       </c>
     </row>
     <row r="571">
@@ -39580,7 +39580,7 @@
         <v>197.375</v>
       </c>
       <c r="V571" t="n">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="572">
@@ -39640,7 +39640,7 @@
         <v>0</v>
       </c>
       <c r="V572" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573">
@@ -39710,7 +39710,7 @@
         <v>84.4375</v>
       </c>
       <c r="V573" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="574">
@@ -39780,7 +39780,7 @@
         <v>908</v>
       </c>
       <c r="V574" t="n">
-        <v>851</v>
+        <v>784</v>
       </c>
     </row>
     <row r="575">
@@ -39850,7 +39850,7 @@
         <v>113</v>
       </c>
       <c r="V575" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="576">
@@ -39920,7 +39920,7 @@
         <v>638</v>
       </c>
       <c r="V576" t="n">
-        <v>449</v>
+        <v>404</v>
       </c>
     </row>
     <row r="577">
@@ -39990,7 +39990,7 @@
         <v>24.859375</v>
       </c>
       <c r="V577" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="578">
@@ -40052,7 +40052,7 @@
         <v>0</v>
       </c>
       <c r="V578" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579">
@@ -40118,7 +40118,7 @@
         <v>0</v>
       </c>
       <c r="V579" t="n">
-        <v>63</v>
+        <v>130</v>
       </c>
     </row>
     <row r="580">
@@ -40188,7 +40188,7 @@
         <v>687.5</v>
       </c>
       <c r="V580" t="n">
-        <v>838</v>
+        <v>619</v>
       </c>
     </row>
     <row r="581">
@@ -40258,7 +40258,7 @@
         <v>32.0625</v>
       </c>
       <c r="V581" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="582">
@@ -40328,7 +40328,7 @@
         <v>552.5</v>
       </c>
       <c r="V582" t="n">
-        <v>281</v>
+        <v>250</v>
       </c>
     </row>
     <row r="583">
@@ -40398,7 +40398,7 @@
         <v>980</v>
       </c>
       <c r="V583" t="n">
-        <v>840</v>
+        <v>926</v>
       </c>
     </row>
     <row r="584">
@@ -40468,7 +40468,7 @@
         <v>66</v>
       </c>
       <c r="V584" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="585">
@@ -40538,7 +40538,7 @@
         <v>4840</v>
       </c>
       <c r="V585" t="n">
-        <v>4561</v>
+        <v>4130</v>
       </c>
     </row>
     <row r="586">
@@ -40608,7 +40608,7 @@
         <v>374.25</v>
       </c>
       <c r="V586" t="n">
-        <v>481</v>
+        <v>462</v>
       </c>
     </row>
     <row r="587">
@@ -40678,7 +40678,7 @@
         <v>195.5</v>
       </c>
       <c r="V587" t="n">
-        <v>224</v>
+        <v>197</v>
       </c>
     </row>
     <row r="588">
@@ -40748,7 +40748,7 @@
         <v>105.5</v>
       </c>
       <c r="V588" t="n">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="589">
@@ -40818,7 +40818,7 @@
         <v>912</v>
       </c>
       <c r="V589" t="n">
-        <v>732</v>
+        <v>855</v>
       </c>
     </row>
     <row r="590">
@@ -40888,7 +40888,7 @@
         <v>109</v>
       </c>
       <c r="V590" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="591">
@@ -40958,7 +40958,7 @@
         <v>5432</v>
       </c>
       <c r="V591" t="n">
-        <v>4563</v>
+        <v>4517</v>
       </c>
     </row>
     <row r="592">
@@ -41028,7 +41028,7 @@
         <v>1104</v>
       </c>
       <c r="V592" t="n">
-        <v>1007</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="593">
@@ -41098,7 +41098,7 @@
         <v>48.34375</v>
       </c>
       <c r="V593" t="n">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="594">
@@ -41168,7 +41168,7 @@
         <v>23.5625</v>
       </c>
       <c r="V594" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="595">
@@ -41238,7 +41238,7 @@
         <v>264.75</v>
       </c>
       <c r="V595" t="n">
-        <v>425</v>
+        <v>263</v>
       </c>
     </row>
     <row r="596">
@@ -41308,7 +41308,7 @@
         <v>46.59375</v>
       </c>
       <c r="V596" t="n">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="597">
@@ -41376,7 +41376,7 @@
         <v>331.75</v>
       </c>
       <c r="V597" t="n">
-        <v>154</v>
+        <v>195</v>
       </c>
     </row>
     <row r="598">
@@ -41440,7 +41440,7 @@
         <v>170</v>
       </c>
       <c r="V598" t="n">
-        <v>25</v>
+        <v>66</v>
       </c>
     </row>
     <row r="599">
@@ -41500,7 +41500,7 @@
         <v>0</v>
       </c>
       <c r="V599" t="n">
-        <v>143</v>
+        <v>48</v>
       </c>
     </row>
     <row r="600">
@@ -41562,7 +41562,7 @@
         <v>200</v>
       </c>
       <c r="V600" t="n">
-        <v>123</v>
+        <v>91</v>
       </c>
     </row>
     <row r="601">
@@ -41632,7 +41632,7 @@
         <v>25.421875</v>
       </c>
       <c r="V601" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="602">
@@ -41702,7 +41702,7 @@
         <v>122.9375</v>
       </c>
       <c r="V602" t="n">
-        <v>254</v>
+        <v>196</v>
       </c>
     </row>
     <row r="603">
@@ -41766,7 +41766,7 @@
         <v>0</v>
       </c>
       <c r="V603" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604">
@@ -41832,7 +41832,7 @@
         <v>0</v>
       </c>
       <c r="V604" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="605">
@@ -41896,7 +41896,7 @@
         <v>17.0625</v>
       </c>
       <c r="V605" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="606">
@@ -41966,7 +41966,7 @@
         <v>238.625</v>
       </c>
       <c r="V606" t="n">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="607">
@@ -42036,7 +42036,7 @@
         <v>28</v>
       </c>
       <c r="V607" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="608">
@@ -42106,7 +42106,7 @@
         <v>1287</v>
       </c>
       <c r="V608" t="n">
-        <v>924</v>
+        <v>838</v>
       </c>
     </row>
     <row r="609">
@@ -42176,7 +42176,7 @@
         <v>199</v>
       </c>
       <c r="V609" t="n">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="610">
@@ -42246,7 +42246,7 @@
         <v>39.65625</v>
       </c>
       <c r="V610" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="611">
@@ -42316,7 +42316,7 @@
         <v>238.25</v>
       </c>
       <c r="V611" t="n">
-        <v>283</v>
+        <v>190</v>
       </c>
     </row>
     <row r="612">
@@ -42380,7 +42380,7 @@
         <v>0</v>
       </c>
       <c r="V612" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="613">
@@ -42450,7 +42450,7 @@
         <v>626.5</v>
       </c>
       <c r="V613" t="n">
-        <v>498</v>
+        <v>340</v>
       </c>
     </row>
     <row r="614">
@@ -42520,7 +42520,7 @@
         <v>45.46875</v>
       </c>
       <c r="V614" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="615">
@@ -42580,7 +42580,7 @@
         <v>0</v>
       </c>
       <c r="V615" t="n">
-        <v>57</v>
+        <v>15</v>
       </c>
     </row>
     <row r="616">
@@ -42650,7 +42650,7 @@
         <v>1240</v>
       </c>
       <c r="V616" t="n">
-        <v>975</v>
+        <v>997</v>
       </c>
     </row>
     <row r="617">
@@ -42790,7 +42790,7 @@
         <v>7472</v>
       </c>
       <c r="V618" t="n">
-        <v>5833</v>
+        <v>5738</v>
       </c>
     </row>
     <row r="619">
@@ -42860,7 +42860,7 @@
         <v>181</v>
       </c>
       <c r="V619" t="n">
-        <v>198</v>
+        <v>172</v>
       </c>
     </row>
     <row r="620">
@@ -42930,7 +42930,7 @@
         <v>175.5</v>
       </c>
       <c r="V620" t="n">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="621">
@@ -43000,7 +43000,7 @@
         <v>55.6875</v>
       </c>
       <c r="V621" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="622">
@@ -43070,7 +43070,7 @@
         <v>121</v>
       </c>
       <c r="V622" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="623">
@@ -43140,7 +43140,7 @@
         <v>24</v>
       </c>
       <c r="V623" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="624">
@@ -43200,7 +43200,7 @@
         <v>0</v>
       </c>
       <c r="V624" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625">
@@ -43260,7 +43260,7 @@
         <v>0</v>
       </c>
       <c r="V625" t="n">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="626">
@@ -43330,7 +43330,7 @@
         <v>25.578125</v>
       </c>
       <c r="V626" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="627">
@@ -43400,7 +43400,7 @@
         <v>17.53125</v>
       </c>
       <c r="V627" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="628">
@@ -43470,7 +43470,7 @@
         <v>11</v>
       </c>
       <c r="V628" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="629">
@@ -43532,7 +43532,7 @@
         <v>0</v>
       </c>
       <c r="V629" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="630">
@@ -43602,7 +43602,7 @@
         <v>138.875</v>
       </c>
       <c r="V630" t="n">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="631">
@@ -43672,7 +43672,7 @@
         <v>27.234375</v>
       </c>
       <c r="V631" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="632">
@@ -43742,7 +43742,7 @@
         <v>814.5</v>
       </c>
       <c r="V632" t="n">
-        <v>386</v>
+        <v>687</v>
       </c>
     </row>
     <row r="633">
@@ -43812,7 +43812,7 @@
         <v>402.75</v>
       </c>
       <c r="V633" t="n">
-        <v>300</v>
+        <v>262</v>
       </c>
     </row>
     <row r="634">
@@ -43872,7 +43872,7 @@
         <v>180</v>
       </c>
       <c r="V634" t="n">
-        <v>57</v>
+        <v>23</v>
       </c>
     </row>
     <row r="635">
@@ -43936,7 +43936,7 @@
         <v>0</v>
       </c>
       <c r="V635" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="636">
@@ -44006,7 +44006,7 @@
         <v>32.34375</v>
       </c>
       <c r="V636" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="637">
@@ -44076,7 +44076,7 @@
         <v>104.6875</v>
       </c>
       <c r="V637" t="n">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="638">
@@ -44140,7 +44140,7 @@
         <v>0</v>
       </c>
       <c r="V638" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="639">
@@ -44210,7 +44210,7 @@
         <v>160.625</v>
       </c>
       <c r="V639" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="640">
@@ -44280,7 +44280,7 @@
         <v>480</v>
       </c>
       <c r="V640" t="n">
-        <v>342</v>
+        <v>291</v>
       </c>
     </row>
     <row r="641">
@@ -44350,7 +44350,7 @@
         <v>285</v>
       </c>
       <c r="V641" t="n">
-        <v>235</v>
+        <v>260</v>
       </c>
     </row>
     <row r="642">
@@ -44420,7 +44420,7 @@
         <v>2650</v>
       </c>
       <c r="V642" t="n">
-        <v>2670</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="643">
@@ -44490,7 +44490,7 @@
         <v>431.75</v>
       </c>
       <c r="V643" t="n">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="644">
@@ -44560,7 +44560,7 @@
         <v>849</v>
       </c>
       <c r="V644" t="n">
-        <v>932</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="645">
@@ -44630,7 +44630,7 @@
         <v>145</v>
       </c>
       <c r="V645" t="n">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="646">
@@ -44700,7 +44700,7 @@
         <v>3226</v>
       </c>
       <c r="V646" t="n">
-        <v>3521</v>
+        <v>3420</v>
       </c>
     </row>
     <row r="647">
@@ -44770,7 +44770,7 @@
         <v>734</v>
       </c>
       <c r="V647" t="n">
-        <v>615</v>
+        <v>626</v>
       </c>
     </row>
     <row r="648">
@@ -44840,7 +44840,7 @@
         <v>8044</v>
       </c>
       <c r="V648" t="n">
-        <v>9427</v>
+        <v>9303</v>
       </c>
     </row>
     <row r="649">
@@ -44910,7 +44910,7 @@
         <v>1195</v>
       </c>
       <c r="V649" t="n">
-        <v>1292</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="650">
@@ -44974,7 +44974,7 @@
         <v>0</v>
       </c>
       <c r="V650" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
     </row>
     <row r="651">
@@ -45044,7 +45044,7 @@
         <v>216.25</v>
       </c>
       <c r="V651" t="n">
-        <v>263</v>
+        <v>221</v>
       </c>
     </row>
     <row r="652">
@@ -45106,7 +45106,7 @@
         <v>142.75</v>
       </c>
       <c r="V652" t="n">
-        <v>193</v>
+        <v>154</v>
       </c>
     </row>
     <row r="653">
@@ -45176,7 +45176,7 @@
         <v>297.25</v>
       </c>
       <c r="V653" t="n">
-        <v>354</v>
+        <v>341</v>
       </c>
     </row>
     <row r="654">
@@ -45246,7 +45246,7 @@
         <v>1762</v>
       </c>
       <c r="V654" t="n">
-        <v>2343</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="655">
@@ -45316,7 +45316,7 @@
         <v>270.25</v>
       </c>
       <c r="V655" t="n">
-        <v>241</v>
+        <v>210</v>
       </c>
     </row>
     <row r="656">
@@ -45386,7 +45386,7 @@
         <v>102.875</v>
       </c>
       <c r="V656" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="657">
@@ -45456,7 +45456,7 @@
         <v>23.65625</v>
       </c>
       <c r="V657" t="n">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="658">
@@ -45526,7 +45526,7 @@
         <v>638.5</v>
       </c>
       <c r="V658" t="n">
-        <v>778</v>
+        <v>731</v>
       </c>
     </row>
     <row r="659">
@@ -45596,7 +45596,7 @@
         <v>879</v>
       </c>
       <c r="V659" t="n">
-        <v>998</v>
+        <v>591</v>
       </c>
     </row>
     <row r="660">
@@ -45666,7 +45666,7 @@
         <v>135.625</v>
       </c>
       <c r="V660" t="n">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="661">
@@ -45736,7 +45736,7 @@
         <v>593</v>
       </c>
       <c r="V661" t="n">
-        <v>581</v>
+        <v>625</v>
       </c>
     </row>
     <row r="662">
@@ -45806,7 +45806,7 @@
         <v>120.9375</v>
       </c>
       <c r="V662" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="663">
@@ -45876,7 +45876,7 @@
         <v>4996</v>
       </c>
       <c r="V663" t="n">
-        <v>6375</v>
+        <v>5815</v>
       </c>
     </row>
     <row r="664">
@@ -45946,7 +45946,7 @@
         <v>824.5</v>
       </c>
       <c r="V664" t="n">
-        <v>845</v>
+        <v>705</v>
       </c>
     </row>
     <row r="665">
@@ -46016,7 +46016,7 @@
         <v>166.375</v>
       </c>
       <c r="V665" t="n">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="666">
@@ -46086,7 +46086,7 @@
         <v>42.78125</v>
       </c>
       <c r="V666" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="667">
@@ -46156,7 +46156,7 @@
         <v>374.25</v>
       </c>
       <c r="V667" t="n">
-        <v>304</v>
+        <v>397</v>
       </c>
     </row>
     <row r="668">
@@ -46226,7 +46226,7 @@
         <v>210.125</v>
       </c>
       <c r="V668" t="n">
-        <v>175</v>
+        <v>161</v>
       </c>
     </row>
     <row r="669">
@@ -46288,7 +46288,7 @@
         <v>0</v>
       </c>
       <c r="V669" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="670">
@@ -46358,7 +46358,7 @@
         <v>92.4375</v>
       </c>
       <c r="V670" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="671">
@@ -46428,7 +46428,7 @@
         <v>925</v>
       </c>
       <c r="V671" t="n">
-        <v>1001</v>
+        <v>920</v>
       </c>
     </row>
     <row r="672">
@@ -46498,7 +46498,7 @@
         <v>108.25</v>
       </c>
       <c r="V672" t="n">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="673">
@@ -46568,7 +46568,7 @@
         <v>605</v>
       </c>
       <c r="V673" t="n">
-        <v>597</v>
+        <v>437</v>
       </c>
     </row>
     <row r="674">
@@ -46638,7 +46638,7 @@
         <v>28.453125</v>
       </c>
       <c r="V674" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="675">
@@ -46700,7 +46700,7 @@
         <v>0</v>
       </c>
       <c r="V675" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="676">
@@ -46766,7 +46766,7 @@
         <v>0</v>
       </c>
       <c r="V676" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="677">
@@ -46836,7 +46836,7 @@
         <v>770</v>
       </c>
       <c r="V677" t="n">
-        <v>836</v>
+        <v>668</v>
       </c>
     </row>
     <row r="678">
@@ -46906,7 +46906,7 @@
         <v>22.328125</v>
       </c>
       <c r="V678" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="679">
@@ -46976,7 +46976,7 @@
         <v>422.25</v>
       </c>
       <c r="V679" t="n">
-        <v>341</v>
+        <v>350</v>
       </c>
     </row>
     <row r="680">
@@ -47036,7 +47036,7 @@
         <v>0</v>
       </c>
       <c r="V680" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="681">
@@ -47106,7 +47106,7 @@
         <v>845.5</v>
       </c>
       <c r="V681" t="n">
-        <v>814</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="682">
@@ -47176,7 +47176,7 @@
         <v>62.375</v>
       </c>
       <c r="V682" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="683">
@@ -47246,7 +47246,7 @@
         <v>4376</v>
       </c>
       <c r="V683" t="n">
-        <v>4657</v>
+        <v>4737</v>
       </c>
     </row>
     <row r="684">
@@ -47316,7 +47316,7 @@
         <v>443.75</v>
       </c>
       <c r="V684" t="n">
-        <v>527</v>
+        <v>521</v>
       </c>
     </row>
     <row r="685">
@@ -47386,7 +47386,7 @@
         <v>271.25</v>
       </c>
       <c r="V685" t="n">
-        <v>275</v>
+        <v>240</v>
       </c>
     </row>
     <row r="686">
@@ -47456,7 +47456,7 @@
         <v>73.5</v>
       </c>
       <c r="V686" t="n">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="687">
@@ -47526,7 +47526,7 @@
         <v>792</v>
       </c>
       <c r="V687" t="n">
-        <v>873</v>
+        <v>980</v>
       </c>
     </row>
     <row r="688">
@@ -47596,7 +47596,7 @@
         <v>104</v>
       </c>
       <c r="V688" t="n">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="689">
@@ -47666,7 +47666,7 @@
         <v>5044</v>
       </c>
       <c r="V689" t="n">
-        <v>5972</v>
+        <v>5969</v>
       </c>
     </row>
     <row r="690">
@@ -47736,7 +47736,7 @@
         <v>1138</v>
       </c>
       <c r="V690" t="n">
-        <v>1182</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="691">
@@ -47806,7 +47806,7 @@
         <v>53.875</v>
       </c>
       <c r="V691" t="n">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="692">
@@ -47876,7 +47876,7 @@
         <v>19.203125</v>
       </c>
       <c r="V692" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="693">
@@ -47946,7 +47946,7 @@
         <v>499.75</v>
       </c>
       <c r="V693" t="n">
-        <v>478</v>
+        <v>302</v>
       </c>
     </row>
     <row r="694">
@@ -48016,7 +48016,7 @@
         <v>59.5625</v>
       </c>
       <c r="V694" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="695">
@@ -48084,7 +48084,7 @@
         <v>342.5</v>
       </c>
       <c r="V695" t="n">
-        <v>506</v>
+        <v>439</v>
       </c>
     </row>
     <row r="696">
@@ -48148,7 +48148,7 @@
         <v>0</v>
       </c>
       <c r="V696" t="n">
-        <v>46</v>
+        <v>77</v>
       </c>
     </row>
     <row r="697">
@@ -48212,7 +48212,7 @@
         <v>200</v>
       </c>
       <c r="V697" t="n">
-        <v>219</v>
+        <v>110</v>
       </c>
     </row>
     <row r="698">
@@ -48352,7 +48352,7 @@
         <v>116.875</v>
       </c>
       <c r="V699" t="n">
-        <v>211</v>
+        <v>172</v>
       </c>
     </row>
     <row r="700">
@@ -48416,7 +48416,7 @@
         <v>0</v>
       </c>
       <c r="V700" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="701">
@@ -48482,7 +48482,7 @@
         <v>0</v>
       </c>
       <c r="V701" t="n">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="702">
@@ -48550,7 +48550,7 @@
         <v>28.671875</v>
       </c>
       <c r="V702" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="703">
@@ -48690,7 +48690,7 @@
         <v>48.0625</v>
       </c>
       <c r="V704" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="705">
@@ -48760,7 +48760,7 @@
         <v>1046</v>
       </c>
       <c r="V705" t="n">
-        <v>1050</v>
+        <v>900</v>
       </c>
     </row>
     <row r="706">
@@ -48830,7 +48830,7 @@
         <v>215</v>
       </c>
       <c r="V706" t="n">
-        <v>190</v>
+        <v>165</v>
       </c>
     </row>
     <row r="707">
@@ -48970,7 +48970,7 @@
         <v>209.375</v>
       </c>
       <c r="V708" t="n">
-        <v>273</v>
+        <v>232</v>
       </c>
     </row>
     <row r="709">
@@ -49036,7 +49036,7 @@
         <v>0</v>
       </c>
       <c r="V709" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="710">
@@ -49106,7 +49106,7 @@
         <v>682</v>
       </c>
       <c r="V710" t="n">
-        <v>465</v>
+        <v>421</v>
       </c>
     </row>
     <row r="711">
@@ -49176,7 +49176,7 @@
         <v>60.0625</v>
       </c>
       <c r="V711" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="712">
@@ -49238,7 +49238,7 @@
         <v>142.75</v>
       </c>
       <c r="V712" t="n">
-        <v>78</v>
+        <v>126</v>
       </c>
     </row>
     <row r="713">
@@ -49308,7 +49308,7 @@
         <v>1005</v>
       </c>
       <c r="V713" t="n">
-        <v>1074</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="714">
@@ -49378,7 +49378,7 @@
         <v>35</v>
       </c>
       <c r="V714" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="715">
@@ -49448,7 +49448,7 @@
         <v>6312</v>
       </c>
       <c r="V715" t="n">
-        <v>7101</v>
+        <v>6893</v>
       </c>
     </row>
     <row r="716">
@@ -49518,7 +49518,7 @@
         <v>199</v>
       </c>
       <c r="V716" t="n">
-        <v>228</v>
+        <v>183</v>
       </c>
     </row>
     <row r="717">
@@ -49588,7 +49588,7 @@
         <v>193.25</v>
       </c>
       <c r="V717" t="n">
-        <v>226</v>
+        <v>214</v>
       </c>
     </row>
     <row r="718">
@@ -49658,7 +49658,7 @@
         <v>61.28125</v>
       </c>
       <c r="V718" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="719">
@@ -49728,7 +49728,7 @@
         <v>130</v>
       </c>
       <c r="V719" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="720">
@@ -49798,7 +49798,7 @@
         <v>26</v>
       </c>
       <c r="V720" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="721">
@@ -49858,7 +49858,7 @@
         <v>0</v>
       </c>
       <c r="V721" t="n">
-        <v>92</v>
+        <v>28</v>
       </c>
     </row>
     <row r="722">
@@ -49928,7 +49928,7 @@
         <v>19.265625</v>
       </c>
       <c r="V722" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="723">
@@ -49998,7 +49998,7 @@
         <v>14.015625</v>
       </c>
       <c r="V723" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="724">
@@ -50130,7 +50130,7 @@
         <v>0</v>
       </c>
       <c r="V725" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="726">
@@ -50200,7 +50200,7 @@
         <v>119.625</v>
       </c>
       <c r="V726" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
     </row>
     <row r="727">
@@ -50270,7 +50270,7 @@
         <v>41.71875</v>
       </c>
       <c r="V727" t="n">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="728">
@@ -50340,7 +50340,7 @@
         <v>1044</v>
       </c>
       <c r="V728" t="n">
-        <v>2452</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="729">
@@ -50410,7 +50410,7 @@
         <v>391</v>
       </c>
       <c r="V729" t="n">
-        <v>448</v>
+        <v>308</v>
       </c>
     </row>
     <row r="730">
@@ -50474,7 +50474,7 @@
         <v>180</v>
       </c>
       <c r="V730" t="n">
-        <v>227</v>
+        <v>192</v>
       </c>
     </row>
     <row r="731">
@@ -50540,7 +50540,7 @@
         <v>0</v>
       </c>
       <c r="V731" t="n">
-        <v>235</v>
+        <v>256</v>
       </c>
     </row>
     <row r="732">
@@ -50610,7 +50610,7 @@
         <v>46.90625</v>
       </c>
       <c r="V732" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="733">
@@ -50680,7 +50680,7 @@
         <v>138.625</v>
       </c>
       <c r="V733" t="n">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="734">
@@ -50742,7 +50742,7 @@
         <v>0</v>
       </c>
       <c r="V734" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="735">
@@ -50812,7 +50812,7 @@
         <v>165.125</v>
       </c>
       <c r="V735" t="n">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="736">
@@ -50882,7 +50882,7 @@
         <v>451</v>
       </c>
       <c r="V736" t="n">
-        <v>332</v>
+        <v>282</v>
       </c>
     </row>
     <row r="737">
@@ -50952,7 +50952,7 @@
         <v>386</v>
       </c>
       <c r="V737" t="n">
-        <v>372</v>
+        <v>279</v>
       </c>
     </row>
     <row r="738">
@@ -51022,7 +51022,7 @@
         <v>2674</v>
       </c>
       <c r="V738" t="n">
-        <v>2810</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="739">
@@ -51092,7 +51092,7 @@
         <v>374.5</v>
       </c>
       <c r="V739" t="n">
-        <v>380</v>
+        <v>401</v>
       </c>
     </row>
     <row r="740">
@@ -51152,7 +51152,7 @@
         <v>1.349609375</v>
       </c>
       <c r="V740" t="n">
-        <v>186</v>
+        <v>72</v>
       </c>
     </row>
     <row r="741">
@@ -51212,7 +51212,7 @@
         <v>10.6015625</v>
       </c>
       <c r="V741" t="n">
-        <v>55</v>
+        <v>19</v>
       </c>
     </row>
     <row r="742">
@@ -51282,7 +51282,7 @@
         <v>848</v>
       </c>
       <c r="V742" t="n">
-        <v>908</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="743">
@@ -51352,7 +51352,7 @@
         <v>150</v>
       </c>
       <c r="V743" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="744">
@@ -51422,7 +51422,7 @@
         <v>3806</v>
       </c>
       <c r="V744" t="n">
-        <v>3716</v>
+        <v>3825</v>
       </c>
     </row>
     <row r="745">
@@ -51492,7 +51492,7 @@
         <v>584.5</v>
       </c>
       <c r="V745" t="n">
-        <v>600</v>
+        <v>619</v>
       </c>
     </row>
     <row r="746">
@@ -51562,7 +51562,7 @@
         <v>9400</v>
       </c>
       <c r="V746" t="n">
-        <v>10091</v>
+        <v>10361</v>
       </c>
     </row>
     <row r="747">
@@ -51632,7 +51632,7 @@
         <v>1164</v>
       </c>
       <c r="V747" t="n">
-        <v>1245</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="748">
@@ -51694,7 +51694,7 @@
         <v>0</v>
       </c>
       <c r="V748" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="749">
@@ -51760,7 +51760,7 @@
         <v>0</v>
       </c>
       <c r="V749" t="n">
-        <v>116</v>
+        <v>87</v>
       </c>
     </row>
     <row r="750">
@@ -51830,7 +51830,7 @@
         <v>286.25</v>
       </c>
       <c r="V750" t="n">
-        <v>268</v>
+        <v>240</v>
       </c>
     </row>
     <row r="751">
@@ -51894,7 +51894,7 @@
         <v>135.125</v>
       </c>
       <c r="V751" t="n">
-        <v>180</v>
+        <v>76</v>
       </c>
     </row>
     <row r="752">
@@ -51964,7 +51964,7 @@
         <v>345.75</v>
       </c>
       <c r="V752" t="n">
-        <v>358</v>
+        <v>349</v>
       </c>
     </row>
     <row r="753">
@@ -52034,7 +52034,7 @@
         <v>1998</v>
       </c>
       <c r="V753" t="n">
-        <v>2362</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="754">
@@ -52104,7 +52104,7 @@
         <v>215.75</v>
       </c>
       <c r="V754" t="n">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="755">
@@ -52174,7 +52174,7 @@
         <v>99.6875</v>
       </c>
       <c r="V755" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="756">
@@ -52244,7 +52244,7 @@
         <v>22.453125</v>
       </c>
       <c r="V756" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="757">
@@ -52314,7 +52314,7 @@
         <v>694.5</v>
       </c>
       <c r="V757" t="n">
-        <v>820</v>
+        <v>868</v>
       </c>
     </row>
     <row r="758">
@@ -52384,7 +52384,7 @@
         <v>957.5</v>
       </c>
       <c r="V758" t="n">
-        <v>880</v>
+        <v>764</v>
       </c>
     </row>
     <row r="759">
@@ -52454,7 +52454,7 @@
         <v>121.6875</v>
       </c>
       <c r="V759" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="760">
@@ -52524,7 +52524,7 @@
         <v>623.5</v>
       </c>
       <c r="V760" t="n">
-        <v>571</v>
+        <v>655</v>
       </c>
     </row>
     <row r="761">
@@ -52594,7 +52594,7 @@
         <v>99.8125</v>
       </c>
       <c r="V761" t="n">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="762">
@@ -52664,7 +52664,7 @@
         <v>6000</v>
       </c>
       <c r="V762" t="n">
-        <v>6375</v>
+        <v>5936</v>
       </c>
     </row>
     <row r="763">
@@ -52734,7 +52734,7 @@
         <v>634</v>
       </c>
       <c r="V763" t="n">
-        <v>851</v>
+        <v>785</v>
       </c>
     </row>
     <row r="764">
@@ -52804,7 +52804,7 @@
         <v>167.75</v>
       </c>
       <c r="V764" t="n">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="765">
@@ -52874,7 +52874,7 @@
         <v>46.25</v>
       </c>
       <c r="V765" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="766">
@@ -52944,7 +52944,7 @@
         <v>367.75</v>
       </c>
       <c r="V766" t="n">
-        <v>338</v>
+        <v>424</v>
       </c>
     </row>
     <row r="767">
@@ -53014,7 +53014,7 @@
         <v>184.5</v>
       </c>
       <c r="V767" t="n">
-        <v>189</v>
+        <v>171</v>
       </c>
     </row>
     <row r="768">
@@ -53078,7 +53078,7 @@
         <v>0</v>
       </c>
       <c r="V768" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="769">
@@ -53218,7 +53218,7 @@
         <v>915.5</v>
       </c>
       <c r="V770" t="n">
-        <v>1010</v>
+        <v>930</v>
       </c>
     </row>
     <row r="771">
@@ -53358,7 +53358,7 @@
         <v>637</v>
       </c>
       <c r="V772" t="n">
-        <v>595</v>
+        <v>501</v>
       </c>
     </row>
     <row r="773">
@@ -53490,7 +53490,7 @@
         <v>0</v>
       </c>
       <c r="V774" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="775">
@@ -53556,7 +53556,7 @@
         <v>0</v>
       </c>
       <c r="V775" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="776">
@@ -53616,7 +53616,7 @@
         <v>0</v>
       </c>
       <c r="V776" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="777">
@@ -53686,7 +53686,7 @@
         <v>820</v>
       </c>
       <c r="V777" t="n">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="778">
@@ -53756,7 +53756,7 @@
         <v>26.328125</v>
       </c>
       <c r="V778" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="779">
@@ -53826,7 +53826,7 @@
         <v>423.75</v>
       </c>
       <c r="V779" t="n">
-        <v>342</v>
+        <v>355</v>
       </c>
     </row>
     <row r="780">
@@ -53888,7 +53888,7 @@
         <v>0</v>
       </c>
       <c r="V780" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="781">
@@ -53958,7 +53958,7 @@
         <v>815</v>
       </c>
       <c r="V781" t="n">
-        <v>821</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="782">
@@ -54028,7 +54028,7 @@
         <v>64</v>
       </c>
       <c r="V782" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="783">
@@ -54098,7 +54098,7 @@
         <v>5012</v>
       </c>
       <c r="V783" t="n">
-        <v>4785</v>
+        <v>5068</v>
       </c>
     </row>
     <row r="784">
@@ -54168,7 +54168,7 @@
         <v>307.25</v>
       </c>
       <c r="V784" t="n">
-        <v>466</v>
+        <v>482</v>
       </c>
     </row>
     <row r="785">
@@ -54238,7 +54238,7 @@
         <v>272.25</v>
       </c>
       <c r="V785" t="n">
-        <v>283</v>
+        <v>261</v>
       </c>
     </row>
     <row r="786">
@@ -54308,7 +54308,7 @@
         <v>86.625</v>
       </c>
       <c r="V786" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="787">
@@ -54378,7 +54378,7 @@
         <v>871</v>
       </c>
       <c r="V787" t="n">
-        <v>897</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="788">
@@ -54448,7 +54448,7 @@
         <v>92</v>
       </c>
       <c r="V788" t="n">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="789">
@@ -54518,7 +54518,7 @@
         <v>6620</v>
       </c>
       <c r="V789" t="n">
-        <v>6115</v>
+        <v>6138</v>
       </c>
     </row>
     <row r="790">
@@ -54588,7 +54588,7 @@
         <v>1008</v>
       </c>
       <c r="V790" t="n">
-        <v>1244</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="791">
@@ -54658,7 +54658,7 @@
         <v>77.6875</v>
       </c>
       <c r="V791" t="n">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="792">
@@ -54728,7 +54728,7 @@
         <v>18.1875</v>
       </c>
       <c r="V792" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="793">
@@ -54798,7 +54798,7 @@
         <v>610.5</v>
       </c>
       <c r="V793" t="n">
-        <v>475</v>
+        <v>372</v>
       </c>
     </row>
     <row r="794">
@@ -54868,7 +54868,7 @@
         <v>66.625</v>
       </c>
       <c r="V794" t="n">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="795">
@@ -54936,7 +54936,7 @@
         <v>430</v>
       </c>
       <c r="V795" t="n">
-        <v>505</v>
+        <v>383</v>
       </c>
     </row>
     <row r="796">
@@ -55000,7 +55000,7 @@
         <v>0</v>
       </c>
       <c r="V796" t="n">
-        <v>46</v>
+        <v>74</v>
       </c>
     </row>
     <row r="797">
@@ -55064,7 +55064,7 @@
         <v>200</v>
       </c>
       <c r="V797" t="n">
-        <v>212</v>
+        <v>163</v>
       </c>
     </row>
     <row r="798">
@@ -55134,7 +55134,7 @@
         <v>23.59375</v>
       </c>
       <c r="V798" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="799">
@@ -55204,7 +55204,7 @@
         <v>142</v>
       </c>
       <c r="V799" t="n">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="800">
@@ -55268,7 +55268,7 @@
         <v>0</v>
       </c>
       <c r="V800" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="801">
@@ -55334,7 +55334,7 @@
         <v>0</v>
       </c>
       <c r="V801" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="802">
@@ -55402,7 +55402,7 @@
         <v>12.5546875</v>
       </c>
       <c r="V802" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="803">
@@ -55542,7 +55542,7 @@
         <v>32.1875</v>
       </c>
       <c r="V804" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="805">
@@ -55612,7 +55612,7 @@
         <v>1195</v>
       </c>
       <c r="V805" t="n">
-        <v>1060</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="806">
@@ -55682,7 +55682,7 @@
         <v>216.125</v>
       </c>
       <c r="V806" t="n">
-        <v>191</v>
+        <v>175</v>
       </c>
     </row>
     <row r="807">
@@ -55752,7 +55752,7 @@
         <v>43.21875</v>
       </c>
       <c r="V807" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="808">
@@ -55822,7 +55822,7 @@
         <v>306.75</v>
       </c>
       <c r="V808" t="n">
-        <v>278</v>
+        <v>307</v>
       </c>
     </row>
     <row r="809">
@@ -55888,7 +55888,7 @@
         <v>0</v>
       </c>
       <c r="V809" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="810">
@@ -55958,7 +55958,7 @@
         <v>708</v>
       </c>
       <c r="V810" t="n">
-        <v>507</v>
+        <v>530</v>
       </c>
     </row>
     <row r="811">
@@ -56028,7 +56028,7 @@
         <v>36.375</v>
       </c>
       <c r="V811" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="812">
@@ -56092,7 +56092,7 @@
         <v>135.125</v>
       </c>
       <c r="V812" t="n">
-        <v>62</v>
+        <v>78</v>
       </c>
     </row>
     <row r="813">
@@ -56162,7 +56162,7 @@
         <v>1075</v>
       </c>
       <c r="V813" t="n">
-        <v>1087</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="814">
@@ -56302,7 +56302,7 @@
         <v>7464</v>
       </c>
       <c r="V815" t="n">
-        <v>7471</v>
+        <v>7089</v>
       </c>
     </row>
     <row r="816">
@@ -56372,7 +56372,7 @@
         <v>192</v>
       </c>
       <c r="V816" t="n">
-        <v>213</v>
+        <v>195</v>
       </c>
     </row>
     <row r="817">
@@ -56442,7 +56442,7 @@
         <v>166.25</v>
       </c>
       <c r="V817" t="n">
-        <v>219</v>
+        <v>194</v>
       </c>
     </row>
     <row r="818">
@@ -56512,7 +56512,7 @@
         <v>52.71875</v>
       </c>
       <c r="V818" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="819">
@@ -56582,7 +56582,7 @@
         <v>130.125</v>
       </c>
       <c r="V819" t="n">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="820">
@@ -56652,7 +56652,7 @@
         <v>22.890625</v>
       </c>
       <c r="V820" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="821">
@@ -56712,7 +56712,7 @@
         <v>0</v>
       </c>
       <c r="V821" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="822">
@@ -56772,7 +56772,7 @@
         <v>0</v>
       </c>
       <c r="V822" t="n">
-        <v>74</v>
+        <v>25</v>
       </c>
     </row>
     <row r="823">
@@ -56842,7 +56842,7 @@
         <v>27.359375</v>
       </c>
       <c r="V823" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="824">
@@ -56912,7 +56912,7 @@
         <v>15.234375</v>
       </c>
       <c r="V824" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="825">
@@ -57044,7 +57044,7 @@
         <v>0</v>
       </c>
       <c r="V826" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="827">
@@ -57104,7 +57104,7 @@
         <v>3.849609375</v>
       </c>
       <c r="V827" t="n">
-        <v>81</v>
+        <v>32</v>
       </c>
     </row>
     <row r="828">
@@ -57164,7 +57164,7 @@
         <v>26.59375</v>
       </c>
       <c r="V828" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="829">
@@ -57234,7 +57234,7 @@
         <v>165</v>
       </c>
       <c r="V829" t="n">
-        <v>168</v>
+        <v>146</v>
       </c>
     </row>
     <row r="830">
@@ -57304,7 +57304,7 @@
         <v>23.6875</v>
       </c>
       <c r="V830" t="n">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="831">
@@ -57374,7 +57374,7 @@
         <v>996.5</v>
       </c>
       <c r="V831" t="n">
-        <v>2479</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="832">
@@ -57444,7 +57444,7 @@
         <v>383.75</v>
       </c>
       <c r="V832" t="n">
-        <v>473</v>
+        <v>379</v>
       </c>
     </row>
     <row r="833">
@@ -57510,7 +57510,7 @@
         <v>250</v>
       </c>
       <c r="V833" t="n">
-        <v>367</v>
+        <v>237</v>
       </c>
     </row>
     <row r="834">
@@ -57580,7 +57580,7 @@
         <v>20</v>
       </c>
       <c r="V834" t="n">
-        <v>137</v>
+        <v>162</v>
       </c>
     </row>
     <row r="835">
@@ -57650,7 +57650,7 @@
         <v>52.03125</v>
       </c>
       <c r="V835" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="836">
@@ -57720,7 +57720,7 @@
         <v>148.75</v>
       </c>
       <c r="V836" t="n">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="837">
@@ -57782,7 +57782,7 @@
         <v>0</v>
       </c>
       <c r="V837" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="838">
@@ -57842,7 +57842,7 @@
         <v>1.2255859375</v>
       </c>
       <c r="V838" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
     </row>
     <row r="839">
@@ -57912,7 +57912,7 @@
         <v>211.375</v>
       </c>
       <c r="V839" t="n">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="840">
@@ -57982,7 +57982,7 @@
         <v>598.5</v>
       </c>
       <c r="V840" t="n">
-        <v>357</v>
+        <v>405</v>
       </c>
     </row>
     <row r="841">
@@ -58052,7 +58052,7 @@
         <v>355.75</v>
       </c>
       <c r="V841" t="n">
-        <v>413</v>
+        <v>329</v>
       </c>
     </row>
     <row r="842">
@@ -58122,7 +58122,7 @@
         <v>2878</v>
       </c>
       <c r="V842" t="n">
-        <v>2791</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="843">
@@ -58192,7 +58192,7 @@
         <v>369.5</v>
       </c>
       <c r="V843" t="n">
-        <v>452</v>
+        <v>442</v>
       </c>
     </row>
     <row r="844">
@@ -58254,7 +58254,7 @@
         <v>1.349609375</v>
       </c>
       <c r="V844" t="n">
-        <v>203</v>
+        <v>116</v>
       </c>
     </row>
     <row r="845">
@@ -58314,7 +58314,7 @@
         <v>1</v>
       </c>
       <c r="V845" t="n">
-        <v>67</v>
+        <v>24</v>
       </c>
     </row>
     <row r="846">
@@ -58384,7 +58384,7 @@
         <v>1059</v>
       </c>
       <c r="V846" t="n">
-        <v>1061</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="847">
@@ -58454,7 +58454,7 @@
         <v>153</v>
       </c>
       <c r="V847" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="848">
@@ -58524,7 +58524,7 @@
         <v>4148</v>
       </c>
       <c r="V848" t="n">
-        <v>3718</v>
+        <v>4118</v>
       </c>
     </row>
     <row r="849">
@@ -58594,7 +58594,7 @@
         <v>620.5</v>
       </c>
       <c r="V849" t="n">
-        <v>757</v>
+        <v>794</v>
       </c>
     </row>
     <row r="850">
@@ -58664,7 +58664,7 @@
         <v>10840</v>
       </c>
       <c r="V850" t="n">
-        <v>11801</v>
+        <v>12205</v>
       </c>
     </row>
     <row r="851">
@@ -58734,7 +58734,7 @@
         <v>1178</v>
       </c>
       <c r="V851" t="n">
-        <v>1519</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="852">
@@ -58802,7 +58802,7 @@
         <v>53.21875</v>
       </c>
       <c r="V852" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="853">
@@ -58872,7 +58872,7 @@
         <v>308.25</v>
       </c>
       <c r="V853" t="n">
-        <v>326</v>
+        <v>284</v>
       </c>
     </row>
     <row r="854">
@@ -58936,7 +58936,7 @@
         <v>162.25</v>
       </c>
       <c r="V854" t="n">
-        <v>202</v>
+        <v>87</v>
       </c>
     </row>
     <row r="855">
@@ -59006,7 +59006,7 @@
         <v>383.75</v>
       </c>
       <c r="V855" t="n">
-        <v>420</v>
+        <v>394</v>
       </c>
     </row>
     <row r="856">
@@ -59076,7 +59076,7 @@
         <v>2106</v>
       </c>
       <c r="V856" t="n">
-        <v>2589</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="857">
@@ -59146,7 +59146,7 @@
         <v>254.75</v>
       </c>
       <c r="V857" t="n">
-        <v>299</v>
+        <v>272</v>
       </c>
     </row>
     <row r="858">
@@ -59216,7 +59216,7 @@
         <v>114.25</v>
       </c>
       <c r="V858" t="n">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="859">
@@ -59286,7 +59286,7 @@
         <v>26.40625</v>
       </c>
       <c r="V859" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="860">
@@ -59356,7 +59356,7 @@
         <v>747.5</v>
       </c>
       <c r="V860" t="n">
-        <v>911</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="861">
@@ -59426,7 +59426,7 @@
         <v>1109</v>
       </c>
       <c r="V861" t="n">
-        <v>1089</v>
+        <v>927</v>
       </c>
     </row>
     <row r="862">
@@ -59496,7 +59496,7 @@
         <v>136.625</v>
       </c>
       <c r="V862" t="n">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="863">
@@ -59566,7 +59566,7 @@
         <v>708.5</v>
       </c>
       <c r="V863" t="n">
-        <v>681</v>
+        <v>792</v>
       </c>
     </row>
     <row r="864">
@@ -59636,7 +59636,7 @@
         <v>109.625</v>
       </c>
       <c r="V864" t="n">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="865">
@@ -59706,7 +59706,7 @@
         <v>6428</v>
       </c>
       <c r="V865" t="n">
-        <v>7172</v>
+        <v>6773</v>
       </c>
     </row>
     <row r="866">
@@ -59776,7 +59776,7 @@
         <v>754</v>
       </c>
       <c r="V866" t="n">
-        <v>1083</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="867">
@@ -59846,7 +59846,7 @@
         <v>188</v>
       </c>
       <c r="V867" t="n">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="868">
@@ -59916,7 +59916,7 @@
         <v>38.59375</v>
       </c>
       <c r="V868" t="n">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="869">
@@ -59986,7 +59986,7 @@
         <v>448</v>
       </c>
       <c r="V869" t="n">
-        <v>280</v>
+        <v>471</v>
       </c>
     </row>
     <row r="870">
@@ -60056,7 +60056,7 @@
         <v>207.25</v>
       </c>
       <c r="V870" t="n">
-        <v>220</v>
+        <v>201</v>
       </c>
     </row>
     <row r="871">
@@ -60120,7 +60120,7 @@
         <v>12.90625</v>
       </c>
       <c r="V871" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="872">
@@ -60190,7 +60190,7 @@
         <v>76.625</v>
       </c>
       <c r="V872" t="n">
-        <v>119</v>
+        <v>106</v>
       </c>
     </row>
     <row r="873">
@@ -60260,7 +60260,7 @@
         <v>939</v>
       </c>
       <c r="V873" t="n">
-        <v>1235</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="874">
@@ -60330,7 +60330,7 @@
         <v>99.6875</v>
       </c>
       <c r="V874" t="n">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="875">
@@ -60400,7 +60400,7 @@
         <v>703</v>
       </c>
       <c r="V875" t="n">
-        <v>895</v>
+        <v>735</v>
       </c>
     </row>
     <row r="876">
@@ -60470,7 +60470,7 @@
         <v>40.09375</v>
       </c>
       <c r="V876" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="877">
@@ -60532,7 +60532,7 @@
         <v>0</v>
       </c>
       <c r="V877" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="878">
@@ -60598,7 +60598,7 @@
         <v>0</v>
       </c>
       <c r="V878" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="879">
@@ -60658,7 +60658,7 @@
         <v>0</v>
       </c>
       <c r="V879" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="880">
@@ -60728,7 +60728,7 @@
         <v>915.5</v>
       </c>
       <c r="V880" t="n">
-        <v>962</v>
+        <v>975</v>
       </c>
     </row>
     <row r="881">
@@ -60798,7 +60798,7 @@
         <v>32.21875</v>
       </c>
       <c r="V881" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="882">
@@ -60868,7 +60868,7 @@
         <v>404.75</v>
       </c>
       <c r="V882" t="n">
-        <v>361</v>
+        <v>350</v>
       </c>
     </row>
     <row r="883">
@@ -60932,7 +60932,7 @@
         <v>5.546875</v>
       </c>
       <c r="V883" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="884">
@@ -61002,7 +61002,7 @@
         <v>879</v>
       </c>
       <c r="V884" t="n">
-        <v>926</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="885">
@@ -61142,7 +61142,7 @@
         <v>5396</v>
       </c>
       <c r="V886" t="n">
-        <v>5306</v>
+        <v>5794</v>
       </c>
     </row>
     <row r="887">
@@ -61212,7 +61212,7 @@
         <v>416.75</v>
       </c>
       <c r="V887" t="n">
-        <v>502</v>
+        <v>550</v>
       </c>
     </row>
     <row r="888">
@@ -61282,7 +61282,7 @@
         <v>325</v>
       </c>
       <c r="V888" t="n">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="889">
@@ -61352,7 +61352,7 @@
         <v>106.0625</v>
       </c>
       <c r="V889" t="n">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="890">
@@ -61422,7 +61422,7 @@
         <v>929.5</v>
       </c>
       <c r="V890" t="n">
-        <v>1101</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="891">
@@ -61492,7 +61492,7 @@
         <v>103</v>
       </c>
       <c r="V891" t="n">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="892">
@@ -61562,7 +61562,7 @@
         <v>7784</v>
       </c>
       <c r="V892" t="n">
-        <v>7137</v>
+        <v>7472</v>
       </c>
     </row>
     <row r="893">
@@ -61632,7 +61632,7 @@
         <v>1253</v>
       </c>
       <c r="V893" t="n">
-        <v>1557</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="894">
@@ -61702,7 +61702,7 @@
         <v>83.875</v>
       </c>
       <c r="V894" t="n">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="895">
@@ -61772,7 +61772,7 @@
         <v>18.5</v>
       </c>
       <c r="V895" t="n">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="896">
@@ -61842,7 +61842,7 @@
         <v>705</v>
       </c>
       <c r="V896" t="n">
-        <v>643</v>
+        <v>568</v>
       </c>
     </row>
     <row r="897">
@@ -61912,7 +61912,7 @@
         <v>64.8125</v>
       </c>
       <c r="V897" t="n">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="898">
@@ -61980,7 +61980,7 @@
         <v>436.75</v>
       </c>
       <c r="V898" t="n">
-        <v>474</v>
+        <v>420</v>
       </c>
     </row>
     <row r="899">
@@ -62044,7 +62044,7 @@
         <v>0</v>
       </c>
       <c r="V899" t="n">
-        <v>47</v>
+        <v>72</v>
       </c>
     </row>
     <row r="900">
@@ -62108,7 +62108,7 @@
         <v>100</v>
       </c>
       <c r="V900" t="n">
-        <v>215</v>
+        <v>191</v>
       </c>
     </row>
     <row r="901">
@@ -62178,7 +62178,7 @@
         <v>25.203125</v>
       </c>
       <c r="V901" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="902">
@@ -62248,7 +62248,7 @@
         <v>165.25</v>
       </c>
       <c r="V902" t="n">
-        <v>187</v>
+        <v>156</v>
       </c>
     </row>
     <row r="903">
@@ -62312,7 +62312,7 @@
         <v>0</v>
       </c>
       <c r="V903" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="904">
@@ -62378,7 +62378,7 @@
         <v>0</v>
       </c>
       <c r="V904" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="905">
@@ -62444,7 +62444,7 @@
         <v>20.6875</v>
       </c>
       <c r="V905" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="906">
@@ -62584,7 +62584,7 @@
         <v>26.65625</v>
       </c>
       <c r="V907" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="908">
@@ -62654,7 +62654,7 @@
         <v>1363</v>
       </c>
       <c r="V908" t="n">
-        <v>1317</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="909">
@@ -62724,7 +62724,7 @@
         <v>221.625</v>
       </c>
       <c r="V909" t="n">
-        <v>229</v>
+        <v>200</v>
       </c>
     </row>
     <row r="910">
@@ -62794,7 +62794,7 @@
         <v>45.46875</v>
       </c>
       <c r="V910" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="911">
@@ -62864,7 +62864,7 @@
         <v>369</v>
       </c>
       <c r="V911" t="n">
-        <v>415</v>
+        <v>369</v>
       </c>
     </row>
     <row r="912">
@@ -62932,7 +62932,7 @@
         <v>12.671875</v>
       </c>
       <c r="V912" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="913">
@@ -63002,7 +63002,7 @@
         <v>779</v>
       </c>
       <c r="V913" t="n">
-        <v>679</v>
+        <v>721</v>
       </c>
     </row>
     <row r="914">
@@ -63072,7 +63072,7 @@
         <v>58.4375</v>
       </c>
       <c r="V914" t="n">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="915">
@@ -63136,7 +63136,7 @@
         <v>162.25</v>
       </c>
       <c r="V915" t="n">
-        <v>68</v>
+        <v>90</v>
       </c>
     </row>
     <row r="916">
@@ -63206,7 +63206,7 @@
         <v>1285</v>
       </c>
       <c r="V916" t="n">
-        <v>1265</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="917">
@@ -63276,7 +63276,7 @@
         <v>34</v>
       </c>
       <c r="V917" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="918">
@@ -63346,7 +63346,7 @@
         <v>8776</v>
       </c>
       <c r="V918" t="n">
-        <v>8787</v>
+        <v>8654</v>
       </c>
     </row>
     <row r="919">
@@ -63416,7 +63416,7 @@
         <v>201</v>
       </c>
       <c r="V919" t="n">
-        <v>238</v>
+        <v>221</v>
       </c>
     </row>
     <row r="920">
@@ -63486,7 +63486,7 @@
         <v>191.375</v>
       </c>
       <c r="V920" t="n">
-        <v>251</v>
+        <v>233</v>
       </c>
     </row>
     <row r="921">
@@ -63556,7 +63556,7 @@
         <v>60.6875</v>
       </c>
       <c r="V921" t="n">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="922">
@@ -63626,7 +63626,7 @@
         <v>123.75</v>
       </c>
       <c r="V922" t="n">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="923">
@@ -63696,7 +63696,7 @@
         <v>35</v>
       </c>
       <c r="V923" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="924">
@@ -63766,7 +63766,7 @@
         <v>24.6875</v>
       </c>
       <c r="V924" t="n">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="925">
@@ -63836,7 +63836,7 @@
         <v>22.015625</v>
       </c>
       <c r="V925" t="n">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="926">
@@ -63906,7 +63906,7 @@
         <v>18.75</v>
       </c>
       <c r="V926" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="927">
@@ -63968,7 +63968,7 @@
         <v>0</v>
       </c>
       <c r="V927" t="n">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="928">
@@ -64030,7 +64030,7 @@
         <v>3.849609375</v>
       </c>
       <c r="V928" t="n">
-        <v>100</v>
+        <v>63</v>
       </c>
     </row>
     <row r="929">
@@ -64090,7 +64090,7 @@
         <v>1</v>
       </c>
       <c r="V929" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="930">
@@ -64160,7 +64160,7 @@
         <v>194.75</v>
       </c>
       <c r="V930" t="n">
-        <v>218</v>
+        <v>178</v>
       </c>
     </row>
     <row r="931">
@@ -64230,7 +64230,7 @@
         <v>75.6875</v>
       </c>
       <c r="V931" t="n">
-        <v>125</v>
+        <v>101</v>
       </c>
     </row>
     <row r="932">
@@ -64300,7 +64300,7 @@
         <v>1312</v>
       </c>
       <c r="V932" t="n">
-        <v>2732</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="933">
@@ -64370,7 +64370,7 @@
         <v>405.5</v>
       </c>
       <c r="V933" t="n">
-        <v>744</v>
+        <v>731</v>
       </c>
     </row>
     <row r="934">
@@ -64436,7 +64436,7 @@
         <v>457.75</v>
       </c>
       <c r="V934" t="n">
-        <v>526</v>
+        <v>340</v>
       </c>
     </row>
     <row r="935">
@@ -64506,7 +64506,7 @@
         <v>100</v>
       </c>
       <c r="V935" t="n">
-        <v>277</v>
+        <v>224</v>
       </c>
     </row>
     <row r="936">
@@ -64576,7 +64576,7 @@
         <v>52.5625</v>
       </c>
       <c r="V936" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="937">
@@ -64646,7 +64646,7 @@
         <v>233.5</v>
       </c>
       <c r="V937" t="n">
-        <v>189</v>
+        <v>164</v>
       </c>
     </row>
     <row r="938">
@@ -64710,7 +64710,7 @@
         <v>0</v>
       </c>
       <c r="V938" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="939">
@@ -64770,7 +64770,7 @@
         <v>1.2255859375</v>
       </c>
       <c r="V939" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
     </row>
     <row r="940">
@@ -64840,7 +64840,7 @@
         <v>258</v>
       </c>
       <c r="V940" t="n">
-        <v>230</v>
+        <v>193</v>
       </c>
     </row>
     <row r="941">
@@ -64910,7 +64910,7 @@
         <v>759.5</v>
       </c>
       <c r="V941" t="n">
-        <v>543</v>
+        <v>641</v>
       </c>
     </row>
     <row r="942">
@@ -64980,7 +64980,7 @@
         <v>349.75</v>
       </c>
       <c r="V942" t="n">
-        <v>598</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>
